--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3612754.027918815</v>
+        <v>3611207.605245611</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2481848.227027462</v>
+        <v>2481848.227027463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40196.17409836523</v>
+        <v>40196.1740983662</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.52936184871842</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.47865120333094</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,64 +749,64 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12.73205987707308</v>
+      </c>
+      <c r="Y3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="G4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.487951988786145</v>
+      </c>
+      <c r="F5" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.602605461619507</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>15.30273751513505</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>10.94391759456928</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>16.01716120747036</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,70 +1293,70 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="T10" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="W10" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>228.0286071994913</v>
       </c>
       <c r="I11" t="n">
-        <v>30.23774330641514</v>
+        <v>30.23774330641513</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.08843091187796</v>
+        <v>67.08843091187855</v>
       </c>
       <c r="T11" t="n">
-        <v>125.8976586997834</v>
+        <v>125.8976586997841</v>
       </c>
       <c r="U11" t="n">
-        <v>164.5897212484626</v>
+        <v>164.5897212484628</v>
       </c>
       <c r="V11" t="n">
         <v>241.190714416671</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.27043612847336</v>
+        <v>93.27043612847335</v>
       </c>
       <c r="C13" t="n">
-        <v>80.6852770451639</v>
+        <v>80.68527704516389</v>
       </c>
       <c r="D13" t="n">
-        <v>62.05392896474842</v>
+        <v>62.05392896474841</v>
       </c>
       <c r="E13" t="n">
-        <v>59.87241859310524</v>
+        <v>59.87241859310522</v>
       </c>
       <c r="F13" t="n">
-        <v>58.85950396946731</v>
+        <v>58.8595039694673</v>
       </c>
       <c r="G13" t="n">
-        <v>80.3394904552589</v>
+        <v>80.33949045525912</v>
       </c>
       <c r="H13" t="n">
-        <v>65.97502788087107</v>
+        <v>65.97502788087105</v>
       </c>
       <c r="I13" t="n">
-        <v>36.11131666537931</v>
+        <v>36.1113166653793</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.72396344377185</v>
+        <v>41.72396344377162</v>
       </c>
       <c r="S13" t="n">
         <v>118.4602878294782</v>
@@ -1584,7 +1584,7 @@
         <v>136.7270082895833</v>
       </c>
       <c r="U13" t="n">
-        <v>199.6980337657687</v>
+        <v>199.6980337657692</v>
       </c>
       <c r="V13" t="n">
         <v>165.5760992703641</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>296.1722976100166</v>
+        <v>296.1722976100167</v>
       </c>
       <c r="C14" t="n">
-        <v>278.7113477175436</v>
+        <v>278.7113477175437</v>
       </c>
       <c r="D14" t="n">
-        <v>268.121497567219</v>
+        <v>268.1214975672191</v>
       </c>
       <c r="E14" t="n">
-        <v>295.3688260187978</v>
+        <v>295.3688260187979</v>
       </c>
       <c r="F14" t="n">
-        <v>320.3145016882475</v>
+        <v>320.3145016882476</v>
       </c>
       <c r="G14" t="n">
-        <v>326.3113483877971</v>
+        <v>326.3113483877972</v>
       </c>
       <c r="H14" t="n">
         <v>228.0286071994913</v>
       </c>
       <c r="I14" t="n">
-        <v>30.23774330641514</v>
+        <v>30.23774330641518</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.08843091187796</v>
+        <v>67.08843091187674</v>
       </c>
       <c r="T14" t="n">
         <v>125.8976586997841</v>
       </c>
       <c r="U14" t="n">
-        <v>164.5897212484628</v>
+        <v>164.5897212484627</v>
       </c>
       <c r="V14" t="n">
         <v>241.190714416671</v>
@@ -1672,7 +1672,7 @@
         <v>262.6794246639491</v>
       </c>
       <c r="X14" t="n">
-        <v>283.1695566250051</v>
+        <v>283.1695566250052</v>
       </c>
       <c r="Y14" t="n">
         <v>299.6763946025897</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.27043612847336</v>
+        <v>93.27043612847341</v>
       </c>
       <c r="C16" t="n">
-        <v>80.6852770451639</v>
+        <v>80.68527704516394</v>
       </c>
       <c r="D16" t="n">
-        <v>62.05392896474842</v>
+        <v>62.05392896474847</v>
       </c>
       <c r="E16" t="n">
-        <v>59.87241859310524</v>
+        <v>59.87241859310528</v>
       </c>
       <c r="F16" t="n">
-        <v>58.85950396946731</v>
+        <v>58.85950396946735</v>
       </c>
       <c r="G16" t="n">
-        <v>80.33949045525914</v>
+        <v>80.33949045525827</v>
       </c>
       <c r="H16" t="n">
-        <v>65.97502788087107</v>
+        <v>65.97502788087111</v>
       </c>
       <c r="I16" t="n">
-        <v>36.11131666537931</v>
+        <v>36.11131666537936</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.72396344377185</v>
+        <v>41.72396344377189</v>
       </c>
       <c r="S16" t="n">
-        <v>118.4602878294782</v>
+        <v>118.4602878294783</v>
       </c>
       <c r="T16" t="n">
         <v>136.7270082895833</v>
@@ -1827,10 +1827,10 @@
         <v>165.5760992703641</v>
       </c>
       <c r="W16" t="n">
-        <v>199.9614542831269</v>
+        <v>199.9614542831271</v>
       </c>
       <c r="X16" t="n">
-        <v>139.1481113355732</v>
+        <v>139.1481113355733</v>
       </c>
       <c r="Y16" t="n">
         <v>132.0231092986309</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>296.1722976100166</v>
+        <v>296.1722976100167</v>
       </c>
       <c r="C17" t="n">
-        <v>278.7113477175436</v>
+        <v>278.7113477175437</v>
       </c>
       <c r="D17" t="n">
-        <v>268.121497567219</v>
+        <v>268.1214975672191</v>
       </c>
       <c r="E17" t="n">
-        <v>295.3688260187978</v>
+        <v>295.3688260187979</v>
       </c>
       <c r="F17" t="n">
-        <v>320.3145016882475</v>
+        <v>320.3145016882476</v>
       </c>
       <c r="G17" t="n">
-        <v>326.3113483877971</v>
+        <v>326.3113483877972</v>
       </c>
       <c r="H17" t="n">
         <v>228.0286071994913</v>
       </c>
       <c r="I17" t="n">
-        <v>30.2377433064147</v>
+        <v>30.23774330641518</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.08843091187796</v>
+        <v>67.08843091187799</v>
       </c>
       <c r="T17" t="n">
         <v>125.8976586997841</v>
       </c>
       <c r="U17" t="n">
-        <v>164.5897212484626</v>
+        <v>164.5897212484627</v>
       </c>
       <c r="V17" t="n">
         <v>241.190714416671</v>
@@ -1909,7 +1909,7 @@
         <v>262.6794246639491</v>
       </c>
       <c r="X17" t="n">
-        <v>283.1695566250051</v>
+        <v>283.1695566250037</v>
       </c>
       <c r="Y17" t="n">
         <v>299.6763946025897</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.27043612847336</v>
+        <v>93.27043612847341</v>
       </c>
       <c r="C19" t="n">
-        <v>80.6852770451639</v>
+        <v>80.68527704516306</v>
       </c>
       <c r="D19" t="n">
-        <v>62.05392896474842</v>
+        <v>62.05392896474847</v>
       </c>
       <c r="E19" t="n">
-        <v>59.87241859310524</v>
+        <v>59.87241859310528</v>
       </c>
       <c r="F19" t="n">
-        <v>58.85950396946731</v>
+        <v>58.85950396946735</v>
       </c>
       <c r="G19" t="n">
-        <v>80.33949045525914</v>
+        <v>80.33949045525918</v>
       </c>
       <c r="H19" t="n">
-        <v>65.97502788087107</v>
+        <v>65.97502788087111</v>
       </c>
       <c r="I19" t="n">
-        <v>36.11131666537931</v>
+        <v>36.11131666537936</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.72396344377185</v>
+        <v>41.72396344377189</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4602878294782</v>
+        <v>118.4602878294783</v>
       </c>
       <c r="T19" t="n">
         <v>136.7270082895833</v>
@@ -2067,7 +2067,7 @@
         <v>199.9614542831271</v>
       </c>
       <c r="X19" t="n">
-        <v>139.1481113355732</v>
+        <v>139.1481113355733</v>
       </c>
       <c r="Y19" t="n">
         <v>132.0231092986309</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>296.1722976100166</v>
+        <v>296.1722976100167</v>
       </c>
       <c r="C20" t="n">
-        <v>278.7113477175436</v>
+        <v>278.7113477175437</v>
       </c>
       <c r="D20" t="n">
-        <v>268.121497567219</v>
+        <v>268.1214975672191</v>
       </c>
       <c r="E20" t="n">
-        <v>295.3688260187978</v>
+        <v>295.3688260187979</v>
       </c>
       <c r="F20" t="n">
-        <v>320.3145016882475</v>
+        <v>320.3145016882476</v>
       </c>
       <c r="G20" t="n">
-        <v>326.3113483877971</v>
+        <v>326.3113483877972</v>
       </c>
       <c r="H20" t="n">
         <v>228.0286071994913</v>
       </c>
       <c r="I20" t="n">
-        <v>30.23774330641514</v>
+        <v>30.23774330641518</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.08843091187796</v>
+        <v>67.08843091187674</v>
       </c>
       <c r="T20" t="n">
-        <v>125.8976586997839</v>
+        <v>125.8976586997841</v>
       </c>
       <c r="U20" t="n">
-        <v>164.5897212484628</v>
+        <v>164.5897212484627</v>
       </c>
       <c r="V20" t="n">
         <v>241.190714416671</v>
@@ -2146,7 +2146,7 @@
         <v>262.6794246639491</v>
       </c>
       <c r="X20" t="n">
-        <v>283.1695566250051</v>
+        <v>283.1695566250052</v>
       </c>
       <c r="Y20" t="n">
         <v>299.6763946025897</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.27043612847336</v>
+        <v>93.27043612847341</v>
       </c>
       <c r="C22" t="n">
-        <v>80.6852770451639</v>
+        <v>80.68527704516394</v>
       </c>
       <c r="D22" t="n">
-        <v>62.05392896474842</v>
+        <v>62.05392896474847</v>
       </c>
       <c r="E22" t="n">
-        <v>59.87241859310524</v>
+        <v>59.87241859310528</v>
       </c>
       <c r="F22" t="n">
-        <v>58.85950396946731</v>
+        <v>58.85950396946735</v>
       </c>
       <c r="G22" t="n">
-        <v>80.33949045525912</v>
+        <v>80.33949045525918</v>
       </c>
       <c r="H22" t="n">
-        <v>65.97502788087107</v>
+        <v>65.97502788087111</v>
       </c>
       <c r="I22" t="n">
-        <v>36.11131666537955</v>
+        <v>36.11131666537936</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.72396344377207</v>
+        <v>41.72396344377189</v>
       </c>
       <c r="S22" t="n">
-        <v>118.4602878294782</v>
+        <v>118.4602878294783</v>
       </c>
       <c r="T22" t="n">
         <v>136.7270082895833</v>
       </c>
       <c r="U22" t="n">
-        <v>199.6980337657686</v>
+        <v>199.6980337657687</v>
       </c>
       <c r="V22" t="n">
         <v>165.5760992703641</v>
@@ -2304,7 +2304,7 @@
         <v>199.9614542831271</v>
       </c>
       <c r="X22" t="n">
-        <v>139.1481113355732</v>
+        <v>139.1481113355733</v>
       </c>
       <c r="Y22" t="n">
         <v>132.0231092986309</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>296.1722976100166</v>
+        <v>296.1722976100167</v>
       </c>
       <c r="C23" t="n">
-        <v>278.7113477175436</v>
+        <v>278.7113477175437</v>
       </c>
       <c r="D23" t="n">
-        <v>268.121497567219</v>
+        <v>268.1214975672191</v>
       </c>
       <c r="E23" t="n">
-        <v>295.3688260187978</v>
+        <v>295.3688260187979</v>
       </c>
       <c r="F23" t="n">
-        <v>320.3145016882475</v>
+        <v>320.3145016882476</v>
       </c>
       <c r="G23" t="n">
-        <v>326.3113483877971</v>
+        <v>326.3113483877972</v>
       </c>
       <c r="H23" t="n">
-        <v>228.0286071994913</v>
+        <v>228.0286071994902</v>
       </c>
       <c r="I23" t="n">
-        <v>30.23774330641514</v>
+        <v>30.23774330641518</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.08843091187796</v>
+        <v>67.08843091187799</v>
       </c>
       <c r="T23" t="n">
-        <v>125.8976586997839</v>
+        <v>125.8976586997841</v>
       </c>
       <c r="U23" t="n">
-        <v>164.5897212484624</v>
+        <v>164.5897212484627</v>
       </c>
       <c r="V23" t="n">
         <v>241.190714416671</v>
@@ -2383,7 +2383,7 @@
         <v>262.6794246639491</v>
       </c>
       <c r="X23" t="n">
-        <v>283.1695566250051</v>
+        <v>283.1695566250052</v>
       </c>
       <c r="Y23" t="n">
         <v>299.6763946025897</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.27043612847336</v>
+        <v>93.27043612847341</v>
       </c>
       <c r="C25" t="n">
-        <v>80.6852770451639</v>
+        <v>80.68527704516394</v>
       </c>
       <c r="D25" t="n">
-        <v>62.05392896474842</v>
+        <v>62.05392896474847</v>
       </c>
       <c r="E25" t="n">
-        <v>59.87241859310524</v>
+        <v>59.87241859310528</v>
       </c>
       <c r="F25" t="n">
-        <v>58.85950396946731</v>
+        <v>58.85950396946735</v>
       </c>
       <c r="G25" t="n">
-        <v>80.33949045525914</v>
+        <v>80.33949045525918</v>
       </c>
       <c r="H25" t="n">
-        <v>65.97502788087107</v>
+        <v>65.97502788087111</v>
       </c>
       <c r="I25" t="n">
-        <v>36.11131666537901</v>
+        <v>36.11131666537936</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.72396344377185</v>
+        <v>41.72396344377189</v>
       </c>
       <c r="S25" t="n">
-        <v>118.4602878294782</v>
+        <v>118.4602878294783</v>
       </c>
       <c r="T25" t="n">
         <v>136.7270082895833</v>
@@ -2541,7 +2541,7 @@
         <v>199.9614542831271</v>
       </c>
       <c r="X25" t="n">
-        <v>139.1481113355732</v>
+        <v>139.1481113355733</v>
       </c>
       <c r="Y25" t="n">
         <v>132.0231092986309</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>306.4288864964591</v>
+        <v>306.4288864964592</v>
       </c>
       <c r="C26" t="n">
-        <v>288.9679366039861</v>
+        <v>288.9679366039862</v>
       </c>
       <c r="D26" t="n">
-        <v>278.3780864536615</v>
+        <v>278.3780864536616</v>
       </c>
       <c r="E26" t="n">
-        <v>305.6254149052403</v>
+        <v>305.6254149052404</v>
       </c>
       <c r="F26" t="n">
-        <v>330.5710905746899</v>
+        <v>330.5710905746901</v>
       </c>
       <c r="G26" t="n">
-        <v>336.5679372742396</v>
+        <v>336.5679372742397</v>
       </c>
       <c r="H26" t="n">
-        <v>238.2851960859337</v>
+        <v>238.2851960859338</v>
       </c>
       <c r="I26" t="n">
-        <v>40.49433219285751</v>
+        <v>40.49433219285566</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>77.34501979832039</v>
+        <v>77.34501979832055</v>
       </c>
       <c r="T26" t="n">
-        <v>136.1542475862265</v>
+        <v>136.1542475862266</v>
       </c>
       <c r="U26" t="n">
-        <v>174.8463101349051</v>
+        <v>174.8463101349052</v>
       </c>
       <c r="V26" t="n">
-        <v>251.4473033031134</v>
+        <v>251.4473033031136</v>
       </c>
       <c r="W26" t="n">
-        <v>272.9360135503915</v>
+        <v>272.9360135503916</v>
       </c>
       <c r="X26" t="n">
-        <v>293.4261455114475</v>
+        <v>293.4261455114477</v>
       </c>
       <c r="Y26" t="n">
-        <v>309.9329834890321</v>
+        <v>309.9329834890323</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.5270250149158</v>
+        <v>103.5270250149159</v>
       </c>
       <c r="C28" t="n">
-        <v>90.94186593160633</v>
+        <v>90.94186593160649</v>
       </c>
       <c r="D28" t="n">
-        <v>72.31051785119085</v>
+        <v>72.31051785119101</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>69.1160928559099</v>
       </c>
       <c r="G28" t="n">
-        <v>90.59607934170157</v>
+        <v>90.59607934170172</v>
       </c>
       <c r="H28" t="n">
-        <v>76.2316167673135</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>46.3679055518219</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.98055233021428</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>128.7168767159206</v>
+        <v>82.53276896909628</v>
       </c>
       <c r="T28" t="n">
-        <v>146.9835971760257</v>
+        <v>146.9835971760259</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0423442155929</v>
+        <v>209.9546226522112</v>
       </c>
       <c r="V28" t="n">
-        <v>175.8326881568065</v>
+        <v>175.8326881568067</v>
       </c>
       <c r="W28" t="n">
-        <v>210.2180431695695</v>
+        <v>210.2180431695697</v>
       </c>
       <c r="X28" t="n">
-        <v>149.4047002220157</v>
+        <v>149.4047002220158</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.2796981850733</v>
+        <v>142.2796981850734</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>306.4288864964591</v>
+        <v>306.4288864964592</v>
       </c>
       <c r="C29" t="n">
         <v>288.9679366039861</v>
       </c>
       <c r="D29" t="n">
-        <v>278.3780864536615</v>
+        <v>278.3780864536616</v>
       </c>
       <c r="E29" t="n">
-        <v>305.6254149052403</v>
+        <v>305.6254149052404</v>
       </c>
       <c r="F29" t="n">
-        <v>330.5710905746899</v>
+        <v>330.5710905746901</v>
       </c>
       <c r="G29" t="n">
-        <v>336.5679372742396</v>
+        <v>336.5679372742397</v>
       </c>
       <c r="H29" t="n">
-        <v>238.2851960859337</v>
+        <v>238.2851960859338</v>
       </c>
       <c r="I29" t="n">
-        <v>40.49433219285757</v>
+        <v>40.49433219285767</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>77.34501979832039</v>
+        <v>77.34501979832049</v>
       </c>
       <c r="T29" t="n">
-        <v>136.1542475862265</v>
+        <v>136.1542475862266</v>
       </c>
       <c r="U29" t="n">
-        <v>174.8463101349043</v>
+        <v>174.8463101349052</v>
       </c>
       <c r="V29" t="n">
-        <v>251.4473033031134</v>
+        <v>251.4473033031135</v>
       </c>
       <c r="W29" t="n">
-        <v>272.9360135503915</v>
+        <v>272.9360135503916</v>
       </c>
       <c r="X29" t="n">
-        <v>293.4261455114475</v>
+        <v>293.4261455114477</v>
       </c>
       <c r="Y29" t="n">
-        <v>309.9329834890321</v>
+        <v>309.9329834890322</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.5270250149158</v>
+        <v>103.5270250149159</v>
       </c>
       <c r="C31" t="n">
-        <v>90.94186593160633</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>72.31051785119085</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>69.11609285590984</v>
       </c>
       <c r="G31" t="n">
-        <v>90.59607934170157</v>
+        <v>79.45218628014783</v>
       </c>
       <c r="H31" t="n">
-        <v>76.2316167673135</v>
+        <v>76.2316167673136</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>46.36790555182184</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>51.98055233021438</v>
       </c>
       <c r="S31" t="n">
-        <v>128.7168767159206</v>
+        <v>128.7168767159208</v>
       </c>
       <c r="T31" t="n">
-        <v>146.9835971760257</v>
+        <v>146.9835971760258</v>
       </c>
       <c r="U31" t="n">
-        <v>203.0228965458076</v>
+        <v>209.9546226522112</v>
       </c>
       <c r="V31" t="n">
-        <v>175.8326881568065</v>
+        <v>175.8326881568066</v>
       </c>
       <c r="W31" t="n">
-        <v>210.2180431695695</v>
+        <v>210.2180431695696</v>
       </c>
       <c r="X31" t="n">
         <v>149.4047002220157</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.2796981850733</v>
+        <v>142.2796981850734</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.7595290084999</v>
+        <v>303.7595290085</v>
       </c>
       <c r="C32" t="n">
         <v>286.2985791160269</v>
@@ -3037,7 +3037,7 @@
         <v>275.7087289657023</v>
       </c>
       <c r="E32" t="n">
-        <v>302.9560574172811</v>
+        <v>302.9560574172812</v>
       </c>
       <c r="F32" t="n">
         <v>327.9017330867308</v>
@@ -3046,10 +3046,10 @@
         <v>333.8985797862804</v>
       </c>
       <c r="H32" t="n">
-        <v>235.6158385979745</v>
+        <v>235.6158385979746</v>
       </c>
       <c r="I32" t="n">
-        <v>37.82497470489839</v>
+        <v>37.82497470489844</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>74.67566231036122</v>
+        <v>74.67566231036126</v>
       </c>
       <c r="T32" t="n">
         <v>133.4848900982672</v>
@@ -3088,16 +3088,16 @@
         <v>172.1769526469461</v>
       </c>
       <c r="V32" t="n">
-        <v>248.7779458151542</v>
+        <v>248.7779458151543</v>
       </c>
       <c r="W32" t="n">
-        <v>270.2666560624323</v>
+        <v>270.2666560624324</v>
       </c>
       <c r="X32" t="n">
         <v>290.7567880234884</v>
       </c>
       <c r="Y32" t="n">
-        <v>307.2636260010729</v>
+        <v>307.263626001073</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8576675269566</v>
+        <v>100.8576675269567</v>
       </c>
       <c r="C34" t="n">
-        <v>88.27250844364715</v>
+        <v>88.2725084436472</v>
       </c>
       <c r="D34" t="n">
-        <v>22.66187939781101</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>67.45964999158853</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.513424248476958</v>
       </c>
       <c r="G34" t="n">
-        <v>87.92672185374239</v>
+        <v>87.92672185374244</v>
       </c>
       <c r="H34" t="n">
-        <v>73.56225927935432</v>
+        <v>73.56225927935436</v>
       </c>
       <c r="I34" t="n">
-        <v>43.69854806386257</v>
+        <v>43.69854806386261</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.31119484225511</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>126.0475192279615</v>
       </c>
       <c r="T34" t="n">
-        <v>144.3142396880665</v>
+        <v>144.3142396880666</v>
       </c>
       <c r="U34" t="n">
-        <v>207.2852651642519</v>
+        <v>207.285265164252</v>
       </c>
       <c r="V34" t="n">
-        <v>173.1633306688473</v>
+        <v>173.1633306688474</v>
       </c>
       <c r="W34" t="n">
-        <v>207.5486856816103</v>
+        <v>207.5486856816104</v>
       </c>
       <c r="X34" t="n">
         <v>146.7353427340565</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.6103406971141</v>
+        <v>139.6103406971142</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.08843091187811</v>
+        <v>67.08843091187796</v>
       </c>
       <c r="T35" t="n">
-        <v>125.897658699784</v>
+        <v>125.8976586997841</v>
       </c>
       <c r="U35" t="n">
         <v>164.5897212484624</v>
@@ -3438,13 +3438,13 @@
         <v>58.85950396946731</v>
       </c>
       <c r="G37" t="n">
-        <v>80.33949045525912</v>
+        <v>80.33949045525914</v>
       </c>
       <c r="H37" t="n">
         <v>65.97502788087107</v>
       </c>
       <c r="I37" t="n">
-        <v>36.11131666537932</v>
+        <v>36.11131666537931</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.7239634437723</v>
+        <v>41.72396344377185</v>
       </c>
       <c r="S37" t="n">
         <v>118.4602878294782</v>
@@ -3480,7 +3480,7 @@
         <v>136.7270082895833</v>
       </c>
       <c r="U37" t="n">
-        <v>199.6980337657686</v>
+        <v>199.6980337657687</v>
       </c>
       <c r="V37" t="n">
         <v>165.5760992703641</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>296.1722976100166</v>
+        <v>296.1722976100167</v>
       </c>
       <c r="C38" t="n">
         <v>278.7113477175436</v>
       </c>
       <c r="D38" t="n">
-        <v>268.121497567219</v>
+        <v>268.1214975672191</v>
       </c>
       <c r="E38" t="n">
-        <v>295.3688260187978</v>
+        <v>295.3688260187979</v>
       </c>
       <c r="F38" t="n">
-        <v>320.3145016882475</v>
+        <v>320.3145016882476</v>
       </c>
       <c r="G38" t="n">
-        <v>326.3113483877971</v>
+        <v>326.3113483877972</v>
       </c>
       <c r="H38" t="n">
         <v>228.0286071994913</v>
       </c>
       <c r="I38" t="n">
-        <v>30.23774330641513</v>
+        <v>30.23774330641517</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.08843091187811</v>
+        <v>67.08843091187855</v>
       </c>
       <c r="T38" t="n">
-        <v>125.897658699784</v>
+        <v>125.8976586997841</v>
       </c>
       <c r="U38" t="n">
-        <v>164.5897212484628</v>
+        <v>164.5897212484606</v>
       </c>
       <c r="V38" t="n">
         <v>241.190714416671</v>
@@ -3568,7 +3568,7 @@
         <v>262.6794246639491</v>
       </c>
       <c r="X38" t="n">
-        <v>283.1695566250051</v>
+        <v>283.1695566250052</v>
       </c>
       <c r="Y38" t="n">
         <v>299.6763946025897</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.27043612847335</v>
+        <v>93.27043612847339</v>
       </c>
       <c r="C40" t="n">
-        <v>80.68527704516389</v>
+        <v>80.68527704516393</v>
       </c>
       <c r="D40" t="n">
-        <v>62.05392896474841</v>
+        <v>62.05392896474845</v>
       </c>
       <c r="E40" t="n">
-        <v>59.87241859310522</v>
+        <v>59.87241859310527</v>
       </c>
       <c r="F40" t="n">
-        <v>58.8595039694673</v>
+        <v>58.85950396946734</v>
       </c>
       <c r="G40" t="n">
-        <v>80.33949045525911</v>
+        <v>80.33949045525917</v>
       </c>
       <c r="H40" t="n">
-        <v>65.97502788087105</v>
+        <v>65.9750278808711</v>
       </c>
       <c r="I40" t="n">
-        <v>36.11131666537931</v>
+        <v>36.11131666537934</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.72396344377184</v>
+        <v>41.72396344377188</v>
       </c>
       <c r="S40" t="n">
         <v>118.4602878294782</v>
       </c>
       <c r="T40" t="n">
-        <v>136.7270082895832</v>
+        <v>136.7270082895833</v>
       </c>
       <c r="U40" t="n">
-        <v>199.6980337657686</v>
+        <v>199.6980337657687</v>
       </c>
       <c r="V40" t="n">
         <v>165.5760992703641</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>296.1722976100166</v>
+        <v>296.1722976100165</v>
       </c>
       <c r="C41" t="n">
-        <v>278.7113477175436</v>
+        <v>278.7113477175435</v>
       </c>
       <c r="D41" t="n">
-        <v>268.121497567219</v>
+        <v>268.1214975672189</v>
       </c>
       <c r="E41" t="n">
-        <v>295.3688260187978</v>
+        <v>295.3688260187977</v>
       </c>
       <c r="F41" t="n">
-        <v>320.3145016882475</v>
+        <v>320.3145016882474</v>
       </c>
       <c r="G41" t="n">
-        <v>326.3113483877971</v>
+        <v>326.311348387797</v>
       </c>
       <c r="H41" t="n">
-        <v>228.0286071994913</v>
+        <v>228.0286071994911</v>
       </c>
       <c r="I41" t="n">
-        <v>30.2377433064147</v>
+        <v>30.23774330641501</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.08843091187796</v>
+        <v>67.08843091187782</v>
       </c>
       <c r="T41" t="n">
-        <v>125.8976586997841</v>
+        <v>125.8976586997843</v>
       </c>
       <c r="U41" t="n">
-        <v>164.5897212484626</v>
+        <v>164.5897212484624</v>
       </c>
       <c r="V41" t="n">
-        <v>241.190714416671</v>
+        <v>241.1907144166709</v>
       </c>
       <c r="W41" t="n">
-        <v>262.6794246639491</v>
+        <v>262.679424663949</v>
       </c>
       <c r="X41" t="n">
-        <v>283.1695566250051</v>
+        <v>283.169556625005</v>
       </c>
       <c r="Y41" t="n">
-        <v>299.6763946025897</v>
+        <v>299.6763946025895</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.27043612847336</v>
+        <v>93.27043612847324</v>
       </c>
       <c r="C43" t="n">
-        <v>80.6852770451639</v>
+        <v>80.68527704516377</v>
       </c>
       <c r="D43" t="n">
-        <v>62.05392896474842</v>
+        <v>62.05392896474829</v>
       </c>
       <c r="E43" t="n">
-        <v>59.87241859310524</v>
+        <v>59.87241859310511</v>
       </c>
       <c r="F43" t="n">
-        <v>58.85950396946731</v>
+        <v>58.85950396946718</v>
       </c>
       <c r="G43" t="n">
-        <v>80.33949045525914</v>
+        <v>80.33949045525901</v>
       </c>
       <c r="H43" t="n">
-        <v>65.97502788087077</v>
+        <v>65.97502788087094</v>
       </c>
       <c r="I43" t="n">
-        <v>36.11131666537931</v>
+        <v>36.11131666537919</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.72396344377185</v>
+        <v>41.72396344377172</v>
       </c>
       <c r="S43" t="n">
-        <v>118.4602878294782</v>
+        <v>118.4602878294781</v>
       </c>
       <c r="T43" t="n">
-        <v>136.7270082895833</v>
+        <v>136.7270082895832</v>
       </c>
       <c r="U43" t="n">
-        <v>199.6980337657687</v>
+        <v>199.6980337657685</v>
       </c>
       <c r="V43" t="n">
-        <v>165.5760992703641</v>
+        <v>165.5760992703668</v>
       </c>
       <c r="W43" t="n">
-        <v>199.9614542831271</v>
+        <v>199.961454283127</v>
       </c>
       <c r="X43" t="n">
-        <v>139.1481113355732</v>
+        <v>139.1481113355731</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.0231092986309</v>
+        <v>132.0231092986307</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>296.1722976100166</v>
+        <v>296.1722976100165</v>
       </c>
       <c r="C44" t="n">
-        <v>278.7113477175436</v>
+        <v>278.7113477175435</v>
       </c>
       <c r="D44" t="n">
-        <v>268.121497567219</v>
+        <v>268.1214975672189</v>
       </c>
       <c r="E44" t="n">
-        <v>295.3688260187978</v>
+        <v>295.3688260187977</v>
       </c>
       <c r="F44" t="n">
-        <v>320.3145016882475</v>
+        <v>320.3145016882474</v>
       </c>
       <c r="G44" t="n">
-        <v>326.3113483877971</v>
+        <v>326.311348387797</v>
       </c>
       <c r="H44" t="n">
-        <v>228.0286071994913</v>
+        <v>228.0286071994911</v>
       </c>
       <c r="I44" t="n">
-        <v>30.23774330641514</v>
+        <v>30.23774330641584</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.08843091187796</v>
+        <v>67.08843091187782</v>
       </c>
       <c r="T44" t="n">
         <v>125.8976586997839</v>
       </c>
       <c r="U44" t="n">
-        <v>164.5897212484624</v>
+        <v>164.5897212484625</v>
       </c>
       <c r="V44" t="n">
-        <v>241.190714416671</v>
+        <v>241.1907144166709</v>
       </c>
       <c r="W44" t="n">
-        <v>262.6794246639491</v>
+        <v>262.679424663949</v>
       </c>
       <c r="X44" t="n">
-        <v>283.1695566250051</v>
+        <v>283.169556625005</v>
       </c>
       <c r="Y44" t="n">
-        <v>299.6763946025897</v>
+        <v>299.6763946025895</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.27043612847336</v>
+        <v>93.27043612847324</v>
       </c>
       <c r="C46" t="n">
-        <v>80.6852770451639</v>
+        <v>80.68527704516377</v>
       </c>
       <c r="D46" t="n">
-        <v>62.05392896474842</v>
+        <v>62.05392896474829</v>
       </c>
       <c r="E46" t="n">
-        <v>59.87241859310524</v>
+        <v>59.87241859310511</v>
       </c>
       <c r="F46" t="n">
-        <v>58.85950396946703</v>
+        <v>58.85950396946718</v>
       </c>
       <c r="G46" t="n">
-        <v>80.33949045525914</v>
+        <v>80.33949045525901</v>
       </c>
       <c r="H46" t="n">
-        <v>65.97502788087107</v>
+        <v>65.97502788087094</v>
       </c>
       <c r="I46" t="n">
-        <v>36.11131666537931</v>
+        <v>36.11131666537919</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.72396344377185</v>
+        <v>41.72396344377172</v>
       </c>
       <c r="S46" t="n">
-        <v>118.4602878294782</v>
+        <v>118.4602878294781</v>
       </c>
       <c r="T46" t="n">
-        <v>136.7270082895833</v>
+        <v>136.7270082895861</v>
       </c>
       <c r="U46" t="n">
-        <v>199.6980337657687</v>
+        <v>199.6980337657685</v>
       </c>
       <c r="V46" t="n">
-        <v>165.5760992703641</v>
+        <v>165.576099270364</v>
       </c>
       <c r="W46" t="n">
-        <v>199.9614542831271</v>
+        <v>199.961454283127</v>
       </c>
       <c r="X46" t="n">
-        <v>139.1481113355732</v>
+        <v>139.1481113355731</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.0231092986309</v>
+        <v>132.0231092986307</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C2" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D2" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E2" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F2" t="n">
         <v>28.75151886964269</v>
@@ -4351,31 +4351,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="S2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="T2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="U2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W2" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X2" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.59615086525642</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="C3" t="n">
-        <v>47.59615086525642</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="D3" t="n">
-        <v>47.59615086525642</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="E3" t="n">
-        <v>47.59615086525642</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F3" t="n">
-        <v>32.13884024390788</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G3" t="n">
-        <v>32.13884024390788</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H3" t="n">
-        <v>16.68152962255934</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I3" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
@@ -4433,28 +4433,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X3" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.2109500605402</v>
+        <v>17.43566227534506</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="D4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="E4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="F4" t="n">
-        <v>1.224219001210804</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="G4" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="H4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I4" t="n">
         <v>1.224219001210804</v>
@@ -4494,46 +4494,46 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L4" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M4" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N4" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R4" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S4" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T4" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U4" t="n">
-        <v>16.68152962255934</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V4" t="n">
-        <v>16.68152962255934</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W4" t="n">
-        <v>16.68152962255934</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X4" t="n">
-        <v>16.68152962255934</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.68152962255934</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="C5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="D5" t="n">
-        <v>30.29632881784312</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="E5" t="n">
-        <v>30.29632881784312</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="F5" t="n">
-        <v>23.35082806863965</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>7.893517447291114</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>7.893517447291114</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
         <v>1.224219001210804</v>
@@ -4570,13 +4570,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L5" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M5" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N5" t="n">
         <v>46.0612399205565</v>
@@ -4588,31 +4588,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R5" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="S5" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="T5" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="U5" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="V5" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="W5" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="X5" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.66202407096459</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.978351653996518</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C6" t="n">
-        <v>1.978351653996518</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D6" t="n">
-        <v>1.978351653996518</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="E6" t="n">
-        <v>1.978351653996518</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="F6" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G6" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H6" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="I6" t="n">
         <v>1.978351653996518</v>
@@ -4652,16 +4652,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M6" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N6" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O6" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P6" t="n">
         <v>46.0612399205565</v>
@@ -4670,28 +4670,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S6" t="n">
-        <v>30.29632881784312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T6" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U6" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V6" t="n">
-        <v>1.978351653996518</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W6" t="n">
-        <v>1.978351653996518</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X6" t="n">
-        <v>1.978351653996518</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.978351653996518</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="C7" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="D7" t="n">
-        <v>16.68152962255934</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="E7" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="F7" t="n">
-        <v>16.68152962255934</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="G7" t="n">
-        <v>16.68152962255934</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="H7" t="n">
-        <v>16.68152962255934</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="I7" t="n">
-        <v>16.68152962255934</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="J7" t="n">
-        <v>16.68152962255934</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="K7" t="n">
         <v>1.224219001210804</v>
@@ -4734,10 +4734,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N7" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4746,31 +4746,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="S7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="T7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="U7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="V7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="W7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="X7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.13884024390788</v>
+        <v>58.46202002507908</v>
       </c>
     </row>
     <row r="8">
@@ -4792,16 +4792,16 @@
         <v>40.631385380739</v>
       </c>
       <c r="F8" t="n">
-        <v>33.68588463153553</v>
+        <v>29.57692316400236</v>
       </c>
       <c r="G8" t="n">
-        <v>18.22857401018699</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
@@ -4813,13 +4813,13 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>52.77779986093951</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N8" t="n">
-        <v>52.77779986093951</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O8" t="n">
-        <v>78.14188814362403</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
@@ -4831,19 +4831,19 @@
         <v>66.51046739551762</v>
       </c>
       <c r="S8" t="n">
-        <v>40.631385380739</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T8" t="n">
-        <v>40.631385380739</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U8" t="n">
-        <v>40.631385380739</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V8" t="n">
-        <v>40.631385380739</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W8" t="n">
-        <v>40.631385380739</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X8" t="n">
         <v>40.631385380739</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.80375594835618</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="C9" t="n">
-        <v>2.80375594835618</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="D9" t="n">
-        <v>2.80375594835618</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="E9" t="n">
-        <v>2.80375594835618</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="F9" t="n">
-        <v>2.80375594835618</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G9" t="n">
-        <v>2.80375594835618</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
-        <v>2.80375594835618</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I9" t="n">
         <v>2.80375594835618</v>
@@ -4886,19 +4886,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>27.41371157825499</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N9" t="n">
-        <v>52.77779986093951</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O9" t="n">
-        <v>78.14188814362403</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P9" t="n">
         <v>102.4811647785233</v>
@@ -4907,28 +4907,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.80375594835618</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.80778732512771</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="C10" t="n">
-        <v>27.92870531034908</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="D10" t="n">
-        <v>27.92870531034908</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="E10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="F10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -4980,34 +4980,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S10" t="n">
-        <v>102.4811647785233</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="T10" t="n">
-        <v>102.4811647785233</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="U10" t="n">
-        <v>102.4811647785233</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="V10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="W10" t="n">
-        <v>79.68686933990632</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="X10" t="n">
-        <v>53.80778732512771</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.80778732512771</v>
+        <v>24.54405948333093</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1284.27846576171</v>
       </c>
       <c r="E11" t="n">
-        <v>985.9261162477731</v>
+        <v>985.9261162477728</v>
       </c>
       <c r="F11" t="n">
-        <v>662.3761145424726</v>
+        <v>662.3761145424724</v>
       </c>
       <c r="G11" t="n">
-        <v>332.768691928536</v>
+        <v>332.7686919285359</v>
       </c>
       <c r="H11" t="n">
         <v>102.4367654644034</v>
@@ -5044,43 +5044,43 @@
         <v>264.2315566516771</v>
       </c>
       <c r="K11" t="n">
-        <v>673.2411138252394</v>
+        <v>520.5752432132266</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.930264140313</v>
+        <v>1080.2643935283</v>
       </c>
       <c r="M11" t="n">
-        <v>1716.895967977019</v>
+        <v>1719.632959280801</v>
       </c>
       <c r="N11" t="n">
-        <v>2351.978188016838</v>
+        <v>2354.71517932062</v>
       </c>
       <c r="O11" t="n">
-        <v>2906.480681758265</v>
+        <v>2909.217673062047</v>
       </c>
       <c r="P11" t="n">
-        <v>3342.061348390444</v>
+        <v>3344.798339694225</v>
       </c>
       <c r="Q11" t="n">
-        <v>3591.94252906714</v>
+        <v>3594.679520370922</v>
       </c>
       <c r="R11" t="n">
-        <v>3594.679520370921</v>
+        <v>3594.679520370922</v>
       </c>
       <c r="S11" t="n">
         <v>3526.913428540741</v>
       </c>
       <c r="T11" t="n">
-        <v>3399.744076318738</v>
+        <v>3399.744076318737</v>
       </c>
       <c r="U11" t="n">
-        <v>3233.491832633422</v>
+        <v>3233.491832633421</v>
       </c>
       <c r="V11" t="n">
         <v>2989.864848374158</v>
       </c>
       <c r="W11" t="n">
-        <v>2724.532096188351</v>
+        <v>2724.53209618835</v>
       </c>
       <c r="X11" t="n">
         <v>2438.502241011578</v>
@@ -5120,25 +5120,25 @@
         <v>71.89359040741843</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89359040741843</v>
+        <v>192.7553857725164</v>
       </c>
       <c r="K12" t="n">
-        <v>143.2659077422617</v>
+        <v>525.9482877498126</v>
       </c>
       <c r="L12" t="n">
-        <v>316.3139104978698</v>
+        <v>1035.371659303112</v>
       </c>
       <c r="M12" t="n">
-        <v>962.7661787927377</v>
+        <v>1619.262310618327</v>
       </c>
       <c r="N12" t="n">
-        <v>1642.035128438069</v>
+        <v>1823.98230966354</v>
       </c>
       <c r="O12" t="n">
-        <v>2197.017833151493</v>
+        <v>1989.041318293002</v>
       </c>
       <c r="P12" t="n">
-        <v>2625.437314146145</v>
+        <v>2417.460799287654</v>
       </c>
       <c r="Q12" t="n">
         <v>2651.150107270629</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.2743616942812</v>
+        <v>520.2743616942813</v>
       </c>
       <c r="C13" t="n">
-        <v>438.7740818506813</v>
+        <v>438.7740818506815</v>
       </c>
       <c r="D13" t="n">
-        <v>376.0933455226526</v>
+        <v>376.0933455226527</v>
       </c>
       <c r="E13" t="n">
-        <v>315.6161550245665</v>
+        <v>315.6161550245666</v>
       </c>
       <c r="F13" t="n">
-        <v>256.1621106109631</v>
+        <v>256.1621106109633</v>
       </c>
       <c r="G13" t="n">
         <v>175.0111101511056</v>
@@ -5199,16 +5199,16 @@
         <v>71.89359040741843</v>
       </c>
       <c r="J13" t="n">
-        <v>141.4524405723917</v>
+        <v>141.4524405723916</v>
       </c>
       <c r="K13" t="n">
         <v>330.4670288942956</v>
       </c>
       <c r="L13" t="n">
-        <v>603.9017051681346</v>
+        <v>603.9017051681348</v>
       </c>
       <c r="M13" t="n">
-        <v>897.9309433692181</v>
+        <v>897.9309433692183</v>
       </c>
       <c r="N13" t="n">
         <v>1192.441097537991</v>
@@ -5223,13 +5223,13 @@
         <v>1759.252648204151</v>
       </c>
       <c r="R13" t="n">
-        <v>1717.107230584179</v>
+        <v>1717.10723058418</v>
       </c>
       <c r="S13" t="n">
         <v>1597.450374190767</v>
       </c>
       <c r="T13" t="n">
-        <v>1459.342285009369</v>
+        <v>1459.34228500937</v>
       </c>
       <c r="U13" t="n">
         <v>1257.627099387381</v>
@@ -5238,13 +5238,13 @@
         <v>1090.378514265801</v>
       </c>
       <c r="W13" t="n">
-        <v>888.3972473131473</v>
+        <v>888.3972473131474</v>
       </c>
       <c r="X13" t="n">
-        <v>747.843599499437</v>
+        <v>747.8435994994371</v>
       </c>
       <c r="Y13" t="n">
-        <v>614.4869234402139</v>
+        <v>614.486923440214</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1836.634875140258</v>
+        <v>1836.634875140259</v>
       </c>
       <c r="C14" t="n">
         <v>1555.108261284154</v>
       </c>
       <c r="D14" t="n">
-        <v>1284.27846576171</v>
+        <v>1284.278465761711</v>
       </c>
       <c r="E14" t="n">
-        <v>985.9261162477731</v>
+        <v>985.9261162477733</v>
       </c>
       <c r="F14" t="n">
-        <v>662.3761145424726</v>
+        <v>662.3761145424727</v>
       </c>
       <c r="G14" t="n">
-        <v>332.768691928536</v>
+        <v>332.7686919285361</v>
       </c>
       <c r="H14" t="n">
-        <v>102.4367654644034</v>
+        <v>102.4367654644035</v>
       </c>
       <c r="I14" t="n">
         <v>71.89359040741843</v>
@@ -5287,43 +5287,43 @@
         <v>1232.930264140313</v>
       </c>
       <c r="M14" t="n">
-        <v>1716.895967977019</v>
+        <v>1872.298829892814</v>
       </c>
       <c r="N14" t="n">
-        <v>2351.978188016838</v>
+        <v>2507.381049932633</v>
       </c>
       <c r="O14" t="n">
-        <v>2906.480681758265</v>
+        <v>3061.883543674059</v>
       </c>
       <c r="P14" t="n">
-        <v>3342.061348390444</v>
+        <v>3497.464210306237</v>
       </c>
       <c r="Q14" t="n">
-        <v>3591.94252906714</v>
+        <v>3594.679520370921</v>
       </c>
       <c r="R14" t="n">
         <v>3594.679520370921</v>
       </c>
       <c r="S14" t="n">
-        <v>3526.913428540741</v>
+        <v>3526.913428540743</v>
       </c>
       <c r="T14" t="n">
-        <v>3399.744076318737</v>
+        <v>3399.744076318738</v>
       </c>
       <c r="U14" t="n">
-        <v>3233.491832633421</v>
+        <v>3233.491832633422</v>
       </c>
       <c r="V14" t="n">
-        <v>2989.864848374158</v>
+        <v>2989.864848374159</v>
       </c>
       <c r="W14" t="n">
-        <v>2724.53209618835</v>
+        <v>2724.532096188351</v>
       </c>
       <c r="X14" t="n">
         <v>2438.502241011578</v>
       </c>
       <c r="Y14" t="n">
-        <v>2135.798812120073</v>
+        <v>2135.798812120074</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>71.89359040741843</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89359040741843</v>
+        <v>192.7553857725164</v>
       </c>
       <c r="K15" t="n">
-        <v>143.2659077422617</v>
+        <v>525.9482877498126</v>
       </c>
       <c r="L15" t="n">
-        <v>652.6892792955608</v>
+        <v>1035.371659303112</v>
       </c>
       <c r="M15" t="n">
-        <v>1299.141547590429</v>
+        <v>1220.77591448548</v>
       </c>
       <c r="N15" t="n">
-        <v>1978.41049723576</v>
+        <v>1434.058613579578</v>
       </c>
       <c r="O15" t="n">
-        <v>2512.29597410503</v>
+        <v>1989.041318293002</v>
       </c>
       <c r="P15" t="n">
-        <v>2625.437314146145</v>
+        <v>2417.460799287654</v>
       </c>
       <c r="Q15" t="n">
         <v>2651.150107270629</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>520.2743616942814</v>
+        <v>520.2743616942809</v>
       </c>
       <c r="C16" t="n">
-        <v>438.7740818506816</v>
+        <v>438.7740818506809</v>
       </c>
       <c r="D16" t="n">
-        <v>376.0933455226528</v>
+        <v>376.0933455226522</v>
       </c>
       <c r="E16" t="n">
-        <v>315.6161550245668</v>
+        <v>315.616155024566</v>
       </c>
       <c r="F16" t="n">
-        <v>256.1621106109634</v>
+        <v>256.1621106109626</v>
       </c>
       <c r="G16" t="n">
-        <v>175.0111101511057</v>
+        <v>175.0111101511058</v>
       </c>
       <c r="H16" t="n">
-        <v>108.3696678471955</v>
+        <v>108.3696678471956</v>
       </c>
       <c r="I16" t="n">
         <v>71.89359040741843</v>
@@ -5466,7 +5466,7 @@
         <v>1597.450374190767</v>
       </c>
       <c r="T16" t="n">
-        <v>1459.34228500937</v>
+        <v>1459.342285009369</v>
       </c>
       <c r="U16" t="n">
         <v>1257.627099387381</v>
@@ -5475,13 +5475,13 @@
         <v>1090.378514265801</v>
       </c>
       <c r="W16" t="n">
-        <v>888.3972473131475</v>
+        <v>888.3972473131471</v>
       </c>
       <c r="X16" t="n">
-        <v>747.8435994994372</v>
+        <v>747.8435994994367</v>
       </c>
       <c r="Y16" t="n">
-        <v>614.4869234402141</v>
+        <v>614.4869234402136</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1836.634875140258</v>
+        <v>1836.634875140259</v>
       </c>
       <c r="C17" t="n">
-        <v>1555.108261284153</v>
+        <v>1555.108261284154</v>
       </c>
       <c r="D17" t="n">
-        <v>1284.27846576171</v>
+        <v>1284.278465761711</v>
       </c>
       <c r="E17" t="n">
-        <v>985.9261162477726</v>
+        <v>985.9261162477733</v>
       </c>
       <c r="F17" t="n">
-        <v>662.3761145424721</v>
+        <v>662.3761145424727</v>
       </c>
       <c r="G17" t="n">
-        <v>332.7686919285356</v>
+        <v>332.7686919285361</v>
       </c>
       <c r="H17" t="n">
-        <v>102.436765464403</v>
+        <v>102.4367654644035</v>
       </c>
       <c r="I17" t="n">
         <v>71.89359040741843</v>
       </c>
       <c r="J17" t="n">
-        <v>111.5656860396634</v>
+        <v>264.2315566516771</v>
       </c>
       <c r="K17" t="n">
-        <v>520.5752432132257</v>
+        <v>517.8382519094447</v>
       </c>
       <c r="L17" t="n">
-        <v>1080.264393528299</v>
+        <v>1077.527402224518</v>
       </c>
       <c r="M17" t="n">
-        <v>1719.6329592808</v>
+        <v>1716.895967977019</v>
       </c>
       <c r="N17" t="n">
-        <v>2354.715179320619</v>
+        <v>2351.978188016838</v>
       </c>
       <c r="O17" t="n">
-        <v>2909.217673062046</v>
+        <v>2906.480681758265</v>
       </c>
       <c r="P17" t="n">
-        <v>3344.798339694225</v>
+        <v>3342.061348390444</v>
       </c>
       <c r="Q17" t="n">
-        <v>3594.679520370921</v>
+        <v>3591.94252906714</v>
       </c>
       <c r="R17" t="n">
         <v>3594.679520370921</v>
@@ -5551,7 +5551,7 @@
         <v>3233.491832633421</v>
       </c>
       <c r="V17" t="n">
-        <v>2989.864848374158</v>
+        <v>2989.864848374157</v>
       </c>
       <c r="W17" t="n">
         <v>2724.53209618835</v>
@@ -5560,7 +5560,7 @@
         <v>2438.502241011578</v>
       </c>
       <c r="Y17" t="n">
-        <v>2135.798812120073</v>
+        <v>2135.798812120074</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>71.89359040741843</v>
       </c>
       <c r="J18" t="n">
-        <v>71.89359040741843</v>
+        <v>192.7553857725164</v>
       </c>
       <c r="K18" t="n">
-        <v>143.2659077422617</v>
+        <v>525.9482877498126</v>
       </c>
       <c r="L18" t="n">
-        <v>652.6892792955608</v>
+        <v>1035.371659303112</v>
       </c>
       <c r="M18" t="n">
-        <v>1299.141547590429</v>
+        <v>1220.77591448548</v>
       </c>
       <c r="N18" t="n">
-        <v>1978.41049723576</v>
+        <v>1434.058613579578</v>
       </c>
       <c r="O18" t="n">
-        <v>2512.29597410503</v>
+        <v>1989.041318293002</v>
       </c>
       <c r="P18" t="n">
-        <v>2625.437314146145</v>
+        <v>2417.460799287654</v>
       </c>
       <c r="Q18" t="n">
         <v>2651.150107270629</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>520.2743616942814</v>
+        <v>520.2743616942809</v>
       </c>
       <c r="C19" t="n">
-        <v>438.7740818506816</v>
+        <v>438.7740818506818</v>
       </c>
       <c r="D19" t="n">
-        <v>376.0933455226528</v>
+        <v>376.0933455226531</v>
       </c>
       <c r="E19" t="n">
-        <v>315.6161550245668</v>
+        <v>315.6161550245669</v>
       </c>
       <c r="F19" t="n">
-        <v>256.1621106109634</v>
+        <v>256.1621106109635</v>
       </c>
       <c r="G19" t="n">
-        <v>175.0111101511057</v>
+        <v>175.0111101511058</v>
       </c>
       <c r="H19" t="n">
-        <v>108.3696678471955</v>
+        <v>108.3696678471956</v>
       </c>
       <c r="I19" t="n">
         <v>71.89359040741843</v>
@@ -5682,7 +5682,7 @@
         <v>603.9017051681346</v>
       </c>
       <c r="M19" t="n">
-        <v>897.9309433692183</v>
+        <v>897.9309433692181</v>
       </c>
       <c r="N19" t="n">
         <v>1192.441097537991</v>
@@ -5703,7 +5703,7 @@
         <v>1597.450374190767</v>
       </c>
       <c r="T19" t="n">
-        <v>1459.34228500937</v>
+        <v>1459.342285009369</v>
       </c>
       <c r="U19" t="n">
         <v>1257.627099387381</v>
@@ -5712,13 +5712,13 @@
         <v>1090.378514265801</v>
       </c>
       <c r="W19" t="n">
-        <v>888.3972473131475</v>
+        <v>888.3972473131471</v>
       </c>
       <c r="X19" t="n">
-        <v>747.8435994994372</v>
+        <v>747.8435994994367</v>
       </c>
       <c r="Y19" t="n">
-        <v>614.4869234402141</v>
+        <v>614.4869234402136</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1836.634875140258</v>
+        <v>1836.634875140259</v>
       </c>
       <c r="C20" t="n">
         <v>1555.108261284154</v>
       </c>
       <c r="D20" t="n">
-        <v>1284.27846576171</v>
+        <v>1284.278465761711</v>
       </c>
       <c r="E20" t="n">
-        <v>985.9261162477731</v>
+        <v>985.9261162477733</v>
       </c>
       <c r="F20" t="n">
-        <v>662.3761145424726</v>
+        <v>662.3761145424727</v>
       </c>
       <c r="G20" t="n">
-        <v>332.768691928536</v>
+        <v>332.7686919285361</v>
       </c>
       <c r="H20" t="n">
-        <v>102.4367654644034</v>
+        <v>102.4367654644035</v>
       </c>
       <c r="I20" t="n">
         <v>71.89359040741843</v>
       </c>
       <c r="J20" t="n">
-        <v>111.5656860396634</v>
+        <v>264.2315566516771</v>
       </c>
       <c r="K20" t="n">
-        <v>520.5752432132257</v>
+        <v>673.2411138252394</v>
       </c>
       <c r="L20" t="n">
-        <v>1080.264393528299</v>
+        <v>1232.930264140313</v>
       </c>
       <c r="M20" t="n">
-        <v>1719.6329592808</v>
+        <v>1716.895967977019</v>
       </c>
       <c r="N20" t="n">
-        <v>2354.715179320619</v>
+        <v>2351.978188016838</v>
       </c>
       <c r="O20" t="n">
-        <v>2909.217673062046</v>
+        <v>2906.480681758265</v>
       </c>
       <c r="P20" t="n">
-        <v>3344.798339694225</v>
+        <v>3342.061348390444</v>
       </c>
       <c r="Q20" t="n">
-        <v>3594.679520370921</v>
+        <v>3591.94252906714</v>
       </c>
       <c r="R20" t="n">
         <v>3594.679520370921</v>
       </c>
       <c r="S20" t="n">
-        <v>3526.913428540741</v>
+        <v>3526.913428540743</v>
       </c>
       <c r="T20" t="n">
-        <v>3399.744076318737</v>
+        <v>3399.744076318738</v>
       </c>
       <c r="U20" t="n">
-        <v>3233.491832633421</v>
+        <v>3233.491832633422</v>
       </c>
       <c r="V20" t="n">
-        <v>2989.864848374158</v>
+        <v>2989.864848374159</v>
       </c>
       <c r="W20" t="n">
-        <v>2724.53209618835</v>
+        <v>2724.532096188351</v>
       </c>
       <c r="X20" t="n">
         <v>2438.502241011578</v>
       </c>
       <c r="Y20" t="n">
-        <v>2135.798812120073</v>
+        <v>2135.798812120074</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>71.89359040741843</v>
       </c>
       <c r="J21" t="n">
-        <v>71.89359040741843</v>
+        <v>192.7553857725164</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0864923847146</v>
+        <v>525.9482877498126</v>
       </c>
       <c r="L21" t="n">
-        <v>914.5098639380137</v>
+        <v>1035.371659303112</v>
       </c>
       <c r="M21" t="n">
-        <v>1560.962132232882</v>
+        <v>1544.616755487903</v>
       </c>
       <c r="N21" t="n">
-        <v>2240.231081878213</v>
+        <v>1749.336754533116</v>
       </c>
       <c r="O21" t="n">
-        <v>2512.29597410503</v>
+        <v>2304.31945924654</v>
       </c>
       <c r="P21" t="n">
-        <v>2625.437314146145</v>
+        <v>2417.460799287654</v>
       </c>
       <c r="Q21" t="n">
         <v>2651.150107270629</v>
@@ -5889,22 +5889,22 @@
         <v>520.2743616942818</v>
       </c>
       <c r="C22" t="n">
-        <v>438.7740818506819</v>
+        <v>438.7740818506818</v>
       </c>
       <c r="D22" t="n">
-        <v>376.0933455226532</v>
+        <v>376.0933455226531</v>
       </c>
       <c r="E22" t="n">
-        <v>315.6161550245671</v>
+        <v>315.6161550245669</v>
       </c>
       <c r="F22" t="n">
-        <v>256.1621106109637</v>
+        <v>256.1621106109635</v>
       </c>
       <c r="G22" t="n">
-        <v>175.0111101511059</v>
+        <v>175.0111101511058</v>
       </c>
       <c r="H22" t="n">
-        <v>108.3696678471958</v>
+        <v>108.3696678471956</v>
       </c>
       <c r="I22" t="n">
         <v>71.89359040741843</v>
@@ -5913,46 +5913,46 @@
         <v>141.4524405723916</v>
       </c>
       <c r="K22" t="n">
-        <v>330.4670288942956</v>
+        <v>330.4670288942955</v>
       </c>
       <c r="L22" t="n">
-        <v>603.9017051681348</v>
+        <v>603.9017051681346</v>
       </c>
       <c r="M22" t="n">
-        <v>897.9309433692182</v>
+        <v>897.9309433692181</v>
       </c>
       <c r="N22" t="n">
-        <v>1192.441097537991</v>
+        <v>1192.441097537993</v>
       </c>
       <c r="O22" t="n">
-        <v>1454.994465499034</v>
+        <v>1454.994465499035</v>
       </c>
       <c r="P22" t="n">
-        <v>1668.50180431216</v>
+        <v>1668.501804312161</v>
       </c>
       <c r="Q22" t="n">
-        <v>1759.252648204151</v>
+        <v>1759.252648204152</v>
       </c>
       <c r="R22" t="n">
-        <v>1717.107230584179</v>
+        <v>1717.10723058418</v>
       </c>
       <c r="S22" t="n">
-        <v>1597.450374190767</v>
+        <v>1597.450374190768</v>
       </c>
       <c r="T22" t="n">
         <v>1459.34228500937</v>
       </c>
       <c r="U22" t="n">
-        <v>1257.627099387381</v>
+        <v>1257.627099387382</v>
       </c>
       <c r="V22" t="n">
-        <v>1090.378514265801</v>
+        <v>1090.378514265802</v>
       </c>
       <c r="W22" t="n">
-        <v>888.3972473131479</v>
+        <v>888.3972473131481</v>
       </c>
       <c r="X22" t="n">
-        <v>747.8435994994376</v>
+        <v>747.8435994994377</v>
       </c>
       <c r="Y22" t="n">
         <v>614.4869234402145</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1836.634875140258</v>
+        <v>1836.634875140257</v>
       </c>
       <c r="C23" t="n">
-        <v>1555.108261284154</v>
+        <v>1555.108261284153</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.27846576171</v>
+        <v>1284.278465761709</v>
       </c>
       <c r="E23" t="n">
-        <v>985.9261162477731</v>
+        <v>985.9261162477721</v>
       </c>
       <c r="F23" t="n">
-        <v>662.3761145424726</v>
+        <v>662.3761145424716</v>
       </c>
       <c r="G23" t="n">
-        <v>332.768691928536</v>
+        <v>332.768691928535</v>
       </c>
       <c r="H23" t="n">
-        <v>102.4367654644034</v>
+        <v>102.4367654644035</v>
       </c>
       <c r="I23" t="n">
         <v>71.89359040741843</v>
@@ -6007,10 +6007,10 @@
         <v>3061.883543674059</v>
       </c>
       <c r="P23" t="n">
-        <v>3497.464210306237</v>
+        <v>3342.061348390444</v>
       </c>
       <c r="Q23" t="n">
-        <v>3594.679520370921</v>
+        <v>3591.94252906714</v>
       </c>
       <c r="R23" t="n">
         <v>3594.679520370921</v>
@@ -6022,19 +6022,19 @@
         <v>3399.744076318737</v>
       </c>
       <c r="U23" t="n">
-        <v>3233.491832633422</v>
+        <v>3233.491832633421</v>
       </c>
       <c r="V23" t="n">
-        <v>2989.864848374158</v>
+        <v>2989.864848374157</v>
       </c>
       <c r="W23" t="n">
-        <v>2724.532096188351</v>
+        <v>2724.53209618835</v>
       </c>
       <c r="X23" t="n">
-        <v>2438.502241011578</v>
+        <v>2438.502241011577</v>
       </c>
       <c r="Y23" t="n">
-        <v>2135.798812120073</v>
+        <v>2135.798812120072</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>71.89359040741843</v>
       </c>
       <c r="J24" t="n">
-        <v>71.89359040741843</v>
+        <v>192.7553857725164</v>
       </c>
       <c r="K24" t="n">
-        <v>405.0864923847146</v>
+        <v>525.9482877498126</v>
       </c>
       <c r="L24" t="n">
-        <v>547.377922087589</v>
+        <v>1035.371659303112</v>
       </c>
       <c r="M24" t="n">
-        <v>1193.830190382457</v>
+        <v>1619.262310618327</v>
       </c>
       <c r="N24" t="n">
-        <v>1642.035128438069</v>
+        <v>1823.98230966354</v>
       </c>
       <c r="O24" t="n">
-        <v>2197.017833151493</v>
+        <v>1989.041318293002</v>
       </c>
       <c r="P24" t="n">
-        <v>2625.437314146145</v>
+        <v>2417.460799287654</v>
       </c>
       <c r="Q24" t="n">
         <v>2651.150107270629</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>520.2743616942812</v>
+        <v>520.2743616942818</v>
       </c>
       <c r="C25" t="n">
-        <v>438.7740818506813</v>
+        <v>438.7740818506818</v>
       </c>
       <c r="D25" t="n">
-        <v>376.0933455226526</v>
+        <v>376.0933455226531</v>
       </c>
       <c r="E25" t="n">
-        <v>315.6161550245665</v>
+        <v>315.6161550245669</v>
       </c>
       <c r="F25" t="n">
-        <v>256.1621106109631</v>
+        <v>256.1621106109635</v>
       </c>
       <c r="G25" t="n">
-        <v>175.0111101511054</v>
+        <v>175.0111101511058</v>
       </c>
       <c r="H25" t="n">
-        <v>108.3696678471952</v>
+        <v>108.3696678471956</v>
       </c>
       <c r="I25" t="n">
         <v>71.89359040741843</v>
@@ -6153,46 +6153,46 @@
         <v>330.4670288942955</v>
       </c>
       <c r="L25" t="n">
-        <v>603.9017051681346</v>
+        <v>603.901705168136</v>
       </c>
       <c r="M25" t="n">
-        <v>897.9309433692181</v>
+        <v>897.9309433692194</v>
       </c>
       <c r="N25" t="n">
-        <v>1192.441097537991</v>
+        <v>1192.441097537993</v>
       </c>
       <c r="O25" t="n">
-        <v>1454.994465499034</v>
+        <v>1454.994465499035</v>
       </c>
       <c r="P25" t="n">
-        <v>1668.50180431216</v>
+        <v>1668.501804312161</v>
       </c>
       <c r="Q25" t="n">
-        <v>1759.252648204151</v>
+        <v>1759.252648204152</v>
       </c>
       <c r="R25" t="n">
-        <v>1717.107230584179</v>
+        <v>1717.10723058418</v>
       </c>
       <c r="S25" t="n">
-        <v>1597.450374190767</v>
+        <v>1597.450374190768</v>
       </c>
       <c r="T25" t="n">
         <v>1459.34228500937</v>
       </c>
       <c r="U25" t="n">
-        <v>1257.627099387381</v>
+        <v>1257.627099387382</v>
       </c>
       <c r="V25" t="n">
-        <v>1090.378514265801</v>
+        <v>1090.378514265802</v>
       </c>
       <c r="W25" t="n">
-        <v>888.3972473131473</v>
+        <v>888.3972473131481</v>
       </c>
       <c r="X25" t="n">
-        <v>747.843599499437</v>
+        <v>747.8435994994377</v>
       </c>
       <c r="Y25" t="n">
-        <v>614.4869234402139</v>
+        <v>614.4869234402145</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1912.327697678836</v>
+        <v>1912.327697678835</v>
       </c>
       <c r="C26" t="n">
-        <v>1620.440893028345</v>
+        <v>1620.440893028344</v>
       </c>
       <c r="D26" t="n">
-        <v>1339.250906711515</v>
+        <v>1339.250906711514</v>
       </c>
       <c r="E26" t="n">
-        <v>1030.538366403192</v>
+        <v>1030.53836640319</v>
       </c>
       <c r="F26" t="n">
-        <v>696.6281739035047</v>
+        <v>696.6281739035031</v>
       </c>
       <c r="G26" t="n">
-        <v>356.6605604951819</v>
+        <v>356.6605604951802</v>
       </c>
       <c r="H26" t="n">
-        <v>115.968443236663</v>
+        <v>115.9684432366611</v>
       </c>
       <c r="I26" t="n">
         <v>75.06507738529179</v>
@@ -6229,13 +6229,13 @@
         <v>267.4030436295502</v>
       </c>
       <c r="K26" t="n">
-        <v>676.412600803113</v>
+        <v>676.4126008031126</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.101751118187</v>
+        <v>1236.101751118186</v>
       </c>
       <c r="M26" t="n">
-        <v>1875.470316870688</v>
+        <v>1875.470316870687</v>
       </c>
       <c r="N26" t="n">
         <v>2510.552536910506</v>
@@ -6271,7 +6271,7 @@
         <v>2534.915445138928</v>
       </c>
       <c r="Y26" t="n">
-        <v>2221.851825453037</v>
+        <v>2221.851825453036</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>75.06507738529179</v>
       </c>
       <c r="J27" t="n">
-        <v>75.06507738529179</v>
+        <v>195.9268727503898</v>
       </c>
       <c r="K27" t="n">
-        <v>146.4373947201351</v>
+        <v>529.1197747276859</v>
       </c>
       <c r="L27" t="n">
-        <v>655.8607662734341</v>
+        <v>1038.543146280985</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.313034568302</v>
+        <v>1232.510101512238</v>
       </c>
       <c r="N27" t="n">
-        <v>1981.581984213633</v>
+        <v>1437.230100557452</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.467461082904</v>
+        <v>1992.212805270875</v>
       </c>
       <c r="P27" t="n">
-        <v>2628.608801124019</v>
+        <v>2420.632286265528</v>
       </c>
       <c r="Q27" t="n">
         <v>2654.321594248503</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2480.541217561423</v>
+        <v>448.1281698420908</v>
       </c>
       <c r="C28" t="n">
-        <v>2388.680746923437</v>
+        <v>356.2676992041044</v>
       </c>
       <c r="D28" t="n">
-        <v>2315.639819801022</v>
+        <v>283.2267720816893</v>
       </c>
       <c r="E28" t="n">
-        <v>2315.639819801022</v>
+        <v>283.2267720816893</v>
       </c>
       <c r="F28" t="n">
-        <v>2315.639819801022</v>
+        <v>213.4125368736995</v>
       </c>
       <c r="G28" t="n">
-        <v>2224.128628546778</v>
+        <v>121.9013456194553</v>
       </c>
       <c r="H28" t="n">
-        <v>2147.126995448481</v>
+        <v>121.9013456194553</v>
       </c>
       <c r="I28" t="n">
-        <v>2147.126995448481</v>
+        <v>75.06507738529179</v>
       </c>
       <c r="J28" t="n">
-        <v>2206.531822615877</v>
+        <v>134.4699045526868</v>
       </c>
       <c r="K28" t="n">
-        <v>2385.392387940202</v>
+        <v>313.3304698770127</v>
       </c>
       <c r="L28" t="n">
-        <v>2648.673041216463</v>
+        <v>576.6111231532736</v>
       </c>
       <c r="M28" t="n">
-        <v>2932.548256419969</v>
+        <v>860.486338356779</v>
       </c>
       <c r="N28" t="n">
-        <v>3216.904387591164</v>
+        <v>1144.842469527974</v>
       </c>
       <c r="O28" t="n">
-        <v>3469.303732554629</v>
+        <v>1397.241814491439</v>
       </c>
       <c r="P28" t="n">
-        <v>3672.657048370177</v>
+        <v>1600.595130306986</v>
       </c>
       <c r="Q28" t="n">
-        <v>3753.253869264589</v>
+        <v>1681.191951201399</v>
       </c>
       <c r="R28" t="n">
-        <v>3700.748260850231</v>
+        <v>1681.191951201399</v>
       </c>
       <c r="S28" t="n">
-        <v>3570.731213662433</v>
+        <v>1597.825517899281</v>
       </c>
       <c r="T28" t="n">
-        <v>3422.262933686649</v>
+        <v>1449.357237923498</v>
       </c>
       <c r="U28" t="n">
-        <v>3269.694909226454</v>
+        <v>1237.281861507123</v>
       </c>
       <c r="V28" t="n">
-        <v>3092.086133310488</v>
+        <v>1059.673085591156</v>
       </c>
       <c r="W28" t="n">
-        <v>2879.744675563448</v>
+        <v>847.3316278441162</v>
       </c>
       <c r="X28" t="n">
-        <v>2728.830836955352</v>
+        <v>696.4177892360194</v>
       </c>
       <c r="Y28" t="n">
-        <v>2585.113970101742</v>
+        <v>552.7009223824099</v>
       </c>
     </row>
     <row r="29">
@@ -6442,64 +6442,64 @@
         <v>1912.327697678837</v>
       </c>
       <c r="C29" t="n">
-        <v>1620.440893028345</v>
+        <v>1620.440893028346</v>
       </c>
       <c r="D29" t="n">
-        <v>1339.250906711515</v>
+        <v>1339.250906711516</v>
       </c>
       <c r="E29" t="n">
         <v>1030.538366403192</v>
       </c>
       <c r="F29" t="n">
-        <v>696.6281739035052</v>
+        <v>696.6281739035053</v>
       </c>
       <c r="G29" t="n">
-        <v>356.6605604951824</v>
+        <v>356.6605604951823</v>
       </c>
       <c r="H29" t="n">
-        <v>115.9684432366631</v>
+        <v>115.9684432366632</v>
       </c>
       <c r="I29" t="n">
-        <v>75.06507738529179</v>
+        <v>75.06507738529181</v>
       </c>
       <c r="J29" t="n">
-        <v>267.4030436295504</v>
+        <v>267.4030436295516</v>
       </c>
       <c r="K29" t="n">
-        <v>676.4126008031128</v>
+        <v>676.4126008031144</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.101751118187</v>
+        <v>1236.101751118188</v>
       </c>
       <c r="M29" t="n">
-        <v>1875.470316870687</v>
+        <v>1875.470316870689</v>
       </c>
       <c r="N29" t="n">
-        <v>2510.552536910506</v>
+        <v>2510.552536910508</v>
       </c>
       <c r="O29" t="n">
-        <v>3065.055030651933</v>
+        <v>3065.055030651934</v>
       </c>
       <c r="P29" t="n">
-        <v>3500.635697284111</v>
+        <v>3500.635697284113</v>
       </c>
       <c r="Q29" t="n">
-        <v>3750.516877960808</v>
+        <v>3750.516877960809</v>
       </c>
       <c r="R29" t="n">
-        <v>3753.253869264589</v>
+        <v>3753.253869264591</v>
       </c>
       <c r="S29" t="n">
-        <v>3675.127586640023</v>
+        <v>3675.127586640025</v>
       </c>
       <c r="T29" t="n">
-        <v>3537.598043623632</v>
+        <v>3537.598043623634</v>
       </c>
       <c r="U29" t="n">
-        <v>3360.985609143931</v>
+        <v>3360.985609143932</v>
       </c>
       <c r="V29" t="n">
-        <v>3106.998434090281</v>
+        <v>3106.998434090282</v>
       </c>
       <c r="W29" t="n">
         <v>2831.305491110088</v>
@@ -6539,19 +6539,19 @@
         <v>120.1509834226435</v>
       </c>
       <c r="I30" t="n">
-        <v>75.06507738529179</v>
+        <v>75.06507738529181</v>
       </c>
       <c r="J30" t="n">
-        <v>75.06507738529179</v>
+        <v>195.9268727503898</v>
       </c>
       <c r="K30" t="n">
-        <v>146.4373947201351</v>
+        <v>529.1197747276859</v>
       </c>
       <c r="L30" t="n">
-        <v>288.7288244230095</v>
+        <v>671.4112044305605</v>
       </c>
       <c r="M30" t="n">
-        <v>757.9611509121205</v>
+        <v>856.8154596129286</v>
       </c>
       <c r="N30" t="n">
         <v>1437.230100557452</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>408.4792994982334</v>
+        <v>348.9719475420525</v>
       </c>
       <c r="C31" t="n">
-        <v>316.6188288602473</v>
+        <v>348.9719475420525</v>
       </c>
       <c r="D31" t="n">
-        <v>243.5779017378323</v>
+        <v>348.9719475420525</v>
       </c>
       <c r="E31" t="n">
-        <v>243.5779017378323</v>
+        <v>348.9719475420525</v>
       </c>
       <c r="F31" t="n">
-        <v>243.5779017378323</v>
+        <v>279.1577123340628</v>
       </c>
       <c r="G31" t="n">
-        <v>152.0667104835883</v>
+        <v>198.9029787177519</v>
       </c>
       <c r="H31" t="n">
-        <v>75.06507738529179</v>
+        <v>121.9013456194553</v>
       </c>
       <c r="I31" t="n">
-        <v>75.06507738529179</v>
+        <v>75.06507738529181</v>
       </c>
       <c r="J31" t="n">
-        <v>134.469904552687</v>
+        <v>134.4699045526869</v>
       </c>
       <c r="K31" t="n">
-        <v>313.3304698770129</v>
+        <v>313.3304698770128</v>
       </c>
       <c r="L31" t="n">
-        <v>576.6111231532741</v>
+        <v>576.6111231532739</v>
       </c>
       <c r="M31" t="n">
-        <v>860.4863383567797</v>
+        <v>860.4863383567792</v>
       </c>
       <c r="N31" t="n">
-        <v>1144.842469527975</v>
+        <v>1144.842469527974</v>
       </c>
       <c r="O31" t="n">
-        <v>1397.24181449144</v>
+        <v>1397.241814491439</v>
       </c>
       <c r="P31" t="n">
-        <v>1600.595130306988</v>
+        <v>1600.595130306987</v>
       </c>
       <c r="Q31" t="n">
-        <v>1681.1919512014</v>
+        <v>1681.191951201399</v>
       </c>
       <c r="R31" t="n">
-        <v>1681.1919512014</v>
+        <v>1628.686342787041</v>
       </c>
       <c r="S31" t="n">
-        <v>1551.174904013601</v>
+        <v>1498.669295599243</v>
       </c>
       <c r="T31" t="n">
-        <v>1402.706624037818</v>
+        <v>1350.201015623459</v>
       </c>
       <c r="U31" t="n">
-        <v>1197.632991163265</v>
+        <v>1138.125639207084</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.024215247298</v>
+        <v>960.5168632911178</v>
       </c>
       <c r="W31" t="n">
-        <v>807.6827575002585</v>
+        <v>748.1754055440779</v>
       </c>
       <c r="X31" t="n">
-        <v>656.7689188921619</v>
+        <v>597.2615669359811</v>
       </c>
       <c r="Y31" t="n">
-        <v>513.0520520385525</v>
+        <v>453.5447000823716</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1018.927679329199</v>
       </c>
       <c r="F32" t="n">
-        <v>687.7138075244204</v>
+        <v>687.71380752442</v>
       </c>
       <c r="G32" t="n">
-        <v>350.4425148110058</v>
+        <v>350.4425148110054</v>
       </c>
       <c r="H32" t="n">
-        <v>112.4467182473951</v>
+        <v>112.4467182473952</v>
       </c>
       <c r="I32" t="n">
-        <v>74.23967309093211</v>
+        <v>74.23967309093213</v>
       </c>
       <c r="J32" t="n">
         <v>226.1328289115676</v>
@@ -6715,10 +6715,10 @@
         <v>2469.282322192524</v>
       </c>
       <c r="O32" t="n">
-        <v>3023.78481593395</v>
+        <v>3023.784815933951</v>
       </c>
       <c r="P32" t="n">
-        <v>3459.365482566128</v>
+        <v>3459.365482566129</v>
       </c>
       <c r="Q32" t="n">
         <v>3709.246663242825</v>
@@ -6767,37 +6767,37 @@
         <v>503.9640029333257</v>
       </c>
       <c r="F33" t="n">
-        <v>357.4294449602106</v>
+        <v>357.4294449602107</v>
       </c>
       <c r="G33" t="n">
-        <v>220.0118334113678</v>
+        <v>220.0118334113679</v>
       </c>
       <c r="H33" t="n">
-        <v>119.3255791282838</v>
+        <v>119.3255791282839</v>
       </c>
       <c r="I33" t="n">
-        <v>74.23967309093211</v>
+        <v>74.23967309093213</v>
       </c>
       <c r="J33" t="n">
-        <v>74.23967309093211</v>
+        <v>195.1014684560301</v>
       </c>
       <c r="K33" t="n">
-        <v>145.6119904257754</v>
+        <v>528.2943704333262</v>
       </c>
       <c r="L33" t="n">
-        <v>318.6599931813832</v>
+        <v>1037.717741986625</v>
       </c>
       <c r="M33" t="n">
-        <v>965.1122614762512</v>
+        <v>1231.684697217879</v>
       </c>
       <c r="N33" t="n">
-        <v>1644.381211121583</v>
+        <v>1436.404696263093</v>
       </c>
       <c r="O33" t="n">
-        <v>2199.363915835006</v>
+        <v>1991.387400976516</v>
       </c>
       <c r="P33" t="n">
-        <v>2627.783396829659</v>
+        <v>2419.806881971169</v>
       </c>
       <c r="Q33" t="n">
         <v>2653.496189954143</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>393.5547408065054</v>
+        <v>443.3640285259544</v>
       </c>
       <c r="C34" t="n">
-        <v>304.3905908634274</v>
+        <v>354.1998785828765</v>
       </c>
       <c r="D34" t="n">
-        <v>281.4998035929112</v>
+        <v>354.1998785828765</v>
       </c>
       <c r="E34" t="n">
-        <v>281.4998035929112</v>
+        <v>286.0588179853123</v>
       </c>
       <c r="F34" t="n">
-        <v>281.4998035929112</v>
+        <v>281.4998035929113</v>
       </c>
       <c r="G34" t="n">
-        <v>192.6849330335754</v>
+        <v>192.6849330335756</v>
       </c>
       <c r="H34" t="n">
-        <v>118.3796206301872</v>
+        <v>118.3796206301873</v>
       </c>
       <c r="I34" t="n">
-        <v>74.23967309093211</v>
+        <v>74.23967309093213</v>
       </c>
       <c r="J34" t="n">
         <v>136.2871641714069</v>
       </c>
       <c r="K34" t="n">
-        <v>317.7903934088124</v>
+        <v>317.7903934088123</v>
       </c>
       <c r="L34" t="n">
         <v>583.7137105981531</v>
@@ -6882,28 +6882,28 @@
         <v>1701.507858211677</v>
       </c>
       <c r="R34" t="n">
-        <v>1651.698570492227</v>
+        <v>1701.507858211677</v>
       </c>
       <c r="S34" t="n">
-        <v>1524.377843999337</v>
+        <v>1574.187131718787</v>
       </c>
       <c r="T34" t="n">
-        <v>1378.605884718462</v>
+        <v>1428.415172437911</v>
       </c>
       <c r="U34" t="n">
-        <v>1169.226828996995</v>
+        <v>1219.036116716445</v>
       </c>
       <c r="V34" t="n">
-        <v>994.3143737759373</v>
+        <v>1044.123661495387</v>
       </c>
       <c r="W34" t="n">
-        <v>784.6692367238056</v>
+        <v>834.4785244432549</v>
       </c>
       <c r="X34" t="n">
-        <v>636.4517188106172</v>
+        <v>686.2610065300664</v>
       </c>
       <c r="Y34" t="n">
-        <v>495.4311726519161</v>
+        <v>545.2404603713652</v>
       </c>
     </row>
     <row r="35">
@@ -6922,13 +6922,13 @@
         <v>1284.278465761711</v>
       </c>
       <c r="E35" t="n">
-        <v>985.9261162477735</v>
+        <v>985.926116247774</v>
       </c>
       <c r="F35" t="n">
-        <v>662.376114542473</v>
+        <v>662.3761145424735</v>
       </c>
       <c r="G35" t="n">
-        <v>332.7686919285366</v>
+        <v>332.768691928537</v>
       </c>
       <c r="H35" t="n">
         <v>102.4367654644034</v>
@@ -7016,25 +7016,25 @@
         <v>71.89359040741843</v>
       </c>
       <c r="J36" t="n">
-        <v>71.89359040741843</v>
+        <v>192.7553857725164</v>
       </c>
       <c r="K36" t="n">
-        <v>143.2659077422617</v>
+        <v>525.9482877498126</v>
       </c>
       <c r="L36" t="n">
-        <v>652.6892792955608</v>
+        <v>1035.371659303112</v>
       </c>
       <c r="M36" t="n">
-        <v>1299.141547590429</v>
+        <v>1220.77591448548</v>
       </c>
       <c r="N36" t="n">
-        <v>1642.035128438069</v>
+        <v>1434.058613579578</v>
       </c>
       <c r="O36" t="n">
-        <v>2197.017833151493</v>
+        <v>1989.041318293002</v>
       </c>
       <c r="P36" t="n">
-        <v>2625.437314146145</v>
+        <v>2417.460799287654</v>
       </c>
       <c r="Q36" t="n">
         <v>2651.150107270629</v>
@@ -7104,7 +7104,7 @@
         <v>603.9017051681346</v>
       </c>
       <c r="M37" t="n">
-        <v>897.9309433692181</v>
+        <v>897.9309433692183</v>
       </c>
       <c r="N37" t="n">
         <v>1192.441097537991</v>
@@ -7159,10 +7159,10 @@
         <v>1284.278465761711</v>
       </c>
       <c r="E38" t="n">
-        <v>985.9261162477735</v>
+        <v>985.9261162477737</v>
       </c>
       <c r="F38" t="n">
-        <v>662.376114542473</v>
+        <v>662.3761145424731</v>
       </c>
       <c r="G38" t="n">
         <v>332.7686919285366</v>
@@ -7171,46 +7171,46 @@
         <v>102.4367654644034</v>
       </c>
       <c r="I38" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="J38" t="n">
-        <v>111.5656860396643</v>
+        <v>264.2315566516771</v>
       </c>
       <c r="K38" t="n">
-        <v>520.5752432132266</v>
+        <v>673.2411138252394</v>
       </c>
       <c r="L38" t="n">
-        <v>1080.2643935283</v>
+        <v>1232.930264140313</v>
       </c>
       <c r="M38" t="n">
-        <v>1719.632959280801</v>
+        <v>1872.298829892814</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.71517932062</v>
+        <v>2507.381049932633</v>
       </c>
       <c r="O38" t="n">
-        <v>2909.217673062047</v>
+        <v>3061.883543674059</v>
       </c>
       <c r="P38" t="n">
-        <v>3344.798339694225</v>
+        <v>3497.464210306237</v>
       </c>
       <c r="Q38" t="n">
-        <v>3594.679520370922</v>
+        <v>3591.94252906714</v>
       </c>
       <c r="R38" t="n">
-        <v>3594.679520370922</v>
+        <v>3594.679520370921</v>
       </c>
       <c r="S38" t="n">
-        <v>3526.913428540742</v>
+        <v>3526.91342854074</v>
       </c>
       <c r="T38" t="n">
-        <v>3399.744076318738</v>
+        <v>3399.744076318736</v>
       </c>
       <c r="U38" t="n">
         <v>3233.491832633422</v>
       </c>
       <c r="V38" t="n">
-        <v>2989.864848374158</v>
+        <v>2989.864848374159</v>
       </c>
       <c r="W38" t="n">
         <v>2724.532096188351</v>
@@ -7219,7 +7219,7 @@
         <v>2438.502241011578</v>
       </c>
       <c r="Y38" t="n">
-        <v>2135.798812120073</v>
+        <v>2135.798812120074</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>116.9794964447701</v>
       </c>
       <c r="I39" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="J39" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="K39" t="n">
-        <v>405.0864923847146</v>
+        <v>143.2659077422617</v>
       </c>
       <c r="L39" t="n">
-        <v>914.5098639380137</v>
+        <v>652.6892792955608</v>
       </c>
       <c r="M39" t="n">
-        <v>1560.962132232882</v>
+        <v>1299.141547590429</v>
       </c>
       <c r="N39" t="n">
-        <v>2240.231081878213</v>
+        <v>1503.861546635642</v>
       </c>
       <c r="O39" t="n">
-        <v>2405.290090507674</v>
+        <v>2058.844251349065</v>
       </c>
       <c r="P39" t="n">
-        <v>2518.431430548789</v>
+        <v>2487.263732343718</v>
       </c>
       <c r="Q39" t="n">
         <v>2651.150107270629</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>520.2743616942815</v>
+        <v>520.274361694282</v>
       </c>
       <c r="C40" t="n">
-        <v>438.7740818506817</v>
+        <v>438.7740818506821</v>
       </c>
       <c r="D40" t="n">
-        <v>376.093345522653</v>
+        <v>376.0933455226534</v>
       </c>
       <c r="E40" t="n">
-        <v>315.6161550245669</v>
+        <v>315.6161550245672</v>
       </c>
       <c r="F40" t="n">
-        <v>256.1621106109635</v>
+        <v>256.1621106109638</v>
       </c>
       <c r="G40" t="n">
-        <v>175.0111101511056</v>
+        <v>175.0111101511058</v>
       </c>
       <c r="H40" t="n">
         <v>108.3696678471955</v>
       </c>
       <c r="I40" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="J40" t="n">
         <v>141.4524405723916</v>
       </c>
       <c r="K40" t="n">
-        <v>330.4670288942956</v>
+        <v>330.4670288942955</v>
       </c>
       <c r="L40" t="n">
-        <v>603.9017051681348</v>
+        <v>603.9017051681346</v>
       </c>
       <c r="M40" t="n">
-        <v>897.9309433692181</v>
+        <v>897.9309433692185</v>
       </c>
       <c r="N40" t="n">
-        <v>1192.441097537991</v>
+        <v>1192.441097537992</v>
       </c>
       <c r="O40" t="n">
-        <v>1454.994465499034</v>
+        <v>1454.994465499035</v>
       </c>
       <c r="P40" t="n">
-        <v>1668.50180431216</v>
+        <v>1668.501804312161</v>
       </c>
       <c r="Q40" t="n">
-        <v>1759.252648204151</v>
+        <v>1759.252648204152</v>
       </c>
       <c r="R40" t="n">
-        <v>1717.107230584179</v>
+        <v>1717.10723058418</v>
       </c>
       <c r="S40" t="n">
-        <v>1597.450374190767</v>
+        <v>1597.450374190768</v>
       </c>
       <c r="T40" t="n">
         <v>1459.34228500937</v>
       </c>
       <c r="U40" t="n">
-        <v>1257.627099387381</v>
+        <v>1257.627099387382</v>
       </c>
       <c r="V40" t="n">
-        <v>1090.378514265801</v>
+        <v>1090.378514265802</v>
       </c>
       <c r="W40" t="n">
-        <v>888.3972473131477</v>
+        <v>888.3972473131482</v>
       </c>
       <c r="X40" t="n">
-        <v>747.8435994994373</v>
+        <v>747.8435994994378</v>
       </c>
       <c r="Y40" t="n">
-        <v>614.4869234402142</v>
+        <v>614.4869234402147</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>1836.634875140258</v>
       </c>
       <c r="C41" t="n">
-        <v>1555.108261284153</v>
+        <v>1555.108261284154</v>
       </c>
       <c r="D41" t="n">
-        <v>1284.27846576171</v>
+        <v>1284.278465761711</v>
       </c>
       <c r="E41" t="n">
-        <v>985.9261162477726</v>
+        <v>985.9261162477735</v>
       </c>
       <c r="F41" t="n">
-        <v>662.3761145424721</v>
+        <v>662.376114542473</v>
       </c>
       <c r="G41" t="n">
-        <v>332.7686919285356</v>
+        <v>332.7686919285366</v>
       </c>
       <c r="H41" t="n">
-        <v>102.436765464403</v>
+        <v>102.4367654644033</v>
       </c>
       <c r="I41" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="J41" t="n">
         <v>264.2315566516771</v>
@@ -7450,7 +7450,7 @@
         <v>2989.864848374158</v>
       </c>
       <c r="W41" t="n">
-        <v>2724.53209618835</v>
+        <v>2724.532096188351</v>
       </c>
       <c r="X41" t="n">
         <v>2438.502241011578</v>
@@ -7487,25 +7487,25 @@
         <v>116.9794964447701</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="K42" t="n">
         <v>143.2659077422617</v>
       </c>
       <c r="L42" t="n">
-        <v>316.3139104978698</v>
+        <v>652.6892792955608</v>
       </c>
       <c r="M42" t="n">
-        <v>962.7661787927377</v>
+        <v>1299.141547590429</v>
       </c>
       <c r="N42" t="n">
-        <v>1642.035128438069</v>
+        <v>1978.41049723576</v>
       </c>
       <c r="O42" t="n">
-        <v>2197.017833151493</v>
+        <v>2512.29597410503</v>
       </c>
       <c r="P42" t="n">
         <v>2625.437314146145</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>520.2743616942812</v>
+        <v>520.2743616942805</v>
       </c>
       <c r="C43" t="n">
-        <v>438.7740818506813</v>
+        <v>438.7740818506808</v>
       </c>
       <c r="D43" t="n">
-        <v>376.0933455226526</v>
+        <v>376.0933455226522</v>
       </c>
       <c r="E43" t="n">
-        <v>315.6161550245665</v>
+        <v>315.6161550245662</v>
       </c>
       <c r="F43" t="n">
-        <v>256.1621106109631</v>
+        <v>256.162110610963</v>
       </c>
       <c r="G43" t="n">
         <v>175.0111101511054</v>
       </c>
       <c r="H43" t="n">
-        <v>108.3696678471955</v>
+        <v>108.3696678471954</v>
       </c>
       <c r="I43" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="J43" t="n">
-        <v>141.4524405723916</v>
+        <v>141.4524405723917</v>
       </c>
       <c r="K43" t="n">
-        <v>330.4670288942955</v>
+        <v>330.4670288942958</v>
       </c>
       <c r="L43" t="n">
-        <v>603.9017051681346</v>
+        <v>603.9017051681351</v>
       </c>
       <c r="M43" t="n">
-        <v>897.9309433692181</v>
+        <v>897.9309433692188</v>
       </c>
       <c r="N43" t="n">
-        <v>1192.441097537991</v>
+        <v>1192.441097537992</v>
       </c>
       <c r="O43" t="n">
-        <v>1454.994465499034</v>
+        <v>1454.994465499035</v>
       </c>
       <c r="P43" t="n">
-        <v>1668.50180431216</v>
+        <v>1668.501804312161</v>
       </c>
       <c r="Q43" t="n">
-        <v>1759.252648204151</v>
+        <v>1759.252648204152</v>
       </c>
       <c r="R43" t="n">
-        <v>1717.107230584179</v>
+        <v>1717.10723058418</v>
       </c>
       <c r="S43" t="n">
-        <v>1597.450374190767</v>
+        <v>1597.450374190768</v>
       </c>
       <c r="T43" t="n">
-        <v>1459.34228500937</v>
+        <v>1459.342285009371</v>
       </c>
       <c r="U43" t="n">
-        <v>1257.627099387381</v>
+        <v>1257.627099387382</v>
       </c>
       <c r="V43" t="n">
-        <v>1090.378514265801</v>
+        <v>1090.3785142658</v>
       </c>
       <c r="W43" t="n">
-        <v>888.3972473131473</v>
+        <v>888.3972473131463</v>
       </c>
       <c r="X43" t="n">
-        <v>747.843599499437</v>
+        <v>747.8435994994361</v>
       </c>
       <c r="Y43" t="n">
-        <v>614.4869234402139</v>
+        <v>614.4869234402131</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1836.634875140258</v>
+        <v>1836.634875140259</v>
       </c>
       <c r="C44" t="n">
         <v>1555.108261284154</v>
       </c>
       <c r="D44" t="n">
-        <v>1284.27846576171</v>
+        <v>1284.278465761711</v>
       </c>
       <c r="E44" t="n">
-        <v>985.9261162477731</v>
+        <v>985.9261162477735</v>
       </c>
       <c r="F44" t="n">
-        <v>662.3761145424726</v>
+        <v>662.376114542473</v>
       </c>
       <c r="G44" t="n">
-        <v>332.7686919285361</v>
+        <v>332.7686919285366</v>
       </c>
       <c r="H44" t="n">
-        <v>102.4367654644034</v>
+        <v>102.4367654644041</v>
       </c>
       <c r="I44" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="J44" t="n">
         <v>264.2315566516771</v>
@@ -7669,7 +7669,7 @@
         <v>3497.464210306237</v>
       </c>
       <c r="Q44" t="n">
-        <v>3594.679520370921</v>
+        <v>3591.94252906714</v>
       </c>
       <c r="R44" t="n">
         <v>3594.679520370921</v>
@@ -7724,28 +7724,28 @@
         <v>116.9794964447701</v>
       </c>
       <c r="I45" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="J45" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="K45" t="n">
-        <v>143.2659077422617</v>
+        <v>281.4394895446886</v>
       </c>
       <c r="L45" t="n">
-        <v>285.5573374451362</v>
+        <v>790.8628610979877</v>
       </c>
       <c r="M45" t="n">
-        <v>932.0096057400042</v>
+        <v>1437.315129392856</v>
       </c>
       <c r="N45" t="n">
-        <v>1611.278555385335</v>
+        <v>1642.035128438069</v>
       </c>
       <c r="O45" t="n">
-        <v>2166.261260098759</v>
+        <v>2197.017833151493</v>
       </c>
       <c r="P45" t="n">
-        <v>2417.460799287654</v>
+        <v>2625.437314146145</v>
       </c>
       <c r="Q45" t="n">
         <v>2651.150107270629</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>520.2743616942812</v>
+        <v>520.2743616942805</v>
       </c>
       <c r="C46" t="n">
-        <v>438.7740818506813</v>
+        <v>438.7740818506808</v>
       </c>
       <c r="D46" t="n">
-        <v>376.0933455226526</v>
+        <v>376.0933455226522</v>
       </c>
       <c r="E46" t="n">
-        <v>315.6161550245665</v>
+        <v>315.6161550245662</v>
       </c>
       <c r="F46" t="n">
-        <v>256.1621106109634</v>
+        <v>256.162110610963</v>
       </c>
       <c r="G46" t="n">
-        <v>175.0111101511057</v>
+        <v>175.0111101511054</v>
       </c>
       <c r="H46" t="n">
-        <v>108.3696678471955</v>
+        <v>108.3696678471954</v>
       </c>
       <c r="I46" t="n">
-        <v>71.89359040741843</v>
+        <v>71.89359040741842</v>
       </c>
       <c r="J46" t="n">
-        <v>141.4524405723916</v>
+        <v>141.4524405723917</v>
       </c>
       <c r="K46" t="n">
-        <v>330.4670288942955</v>
+        <v>330.4670288942958</v>
       </c>
       <c r="L46" t="n">
-        <v>603.9017051681346</v>
+        <v>603.9017051681351</v>
       </c>
       <c r="M46" t="n">
-        <v>897.9309433692181</v>
+        <v>897.9309433692188</v>
       </c>
       <c r="N46" t="n">
-        <v>1192.441097537991</v>
+        <v>1192.441097537992</v>
       </c>
       <c r="O46" t="n">
-        <v>1454.994465499034</v>
+        <v>1454.994465499035</v>
       </c>
       <c r="P46" t="n">
-        <v>1668.50180431216</v>
+        <v>1668.501804312161</v>
       </c>
       <c r="Q46" t="n">
-        <v>1759.252648204151</v>
+        <v>1759.252648204152</v>
       </c>
       <c r="R46" t="n">
-        <v>1717.107230584179</v>
+        <v>1717.10723058418</v>
       </c>
       <c r="S46" t="n">
-        <v>1597.450374190767</v>
+        <v>1597.450374190768</v>
       </c>
       <c r="T46" t="n">
-        <v>1459.34228500937</v>
+        <v>1459.342285009368</v>
       </c>
       <c r="U46" t="n">
-        <v>1257.627099387381</v>
+        <v>1257.62709938738</v>
       </c>
       <c r="V46" t="n">
-        <v>1090.378514265801</v>
+        <v>1090.3785142658</v>
       </c>
       <c r="W46" t="n">
-        <v>888.3972473131473</v>
+        <v>888.3972473131463</v>
       </c>
       <c r="X46" t="n">
-        <v>747.843599499437</v>
+        <v>747.8435994994361</v>
       </c>
       <c r="Y46" t="n">
-        <v>614.4869234402139</v>
+        <v>614.4869234402131</v>
       </c>
     </row>
   </sheetData>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M4" t="n">
         <v>154.2285214627401</v>
@@ -8151,7 +8151,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O4" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L5" t="n">
         <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
-        <v>245.0306783175538</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O5" t="n">
         <v>245.4009489368218</v>
@@ -8300,19 +8300,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M6" t="n">
-        <v>156.8184790122994</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q6" t="n">
         <v>155.2845116011566</v>
@@ -8382,13 +8382,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>153.6102290378862</v>
+        <v>154.2285214627401</v>
       </c>
       <c r="N7" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
-        <v>153.7592759669778</v>
+        <v>153.1409835421239</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8461,16 +8461,16 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>255.8181236693092</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
         <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>169.9374624580204</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>292.5409456991005</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>62.95178219239537</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>4.008413759501778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>31.06724550781166</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>402.5115112453002</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>292.5409456991005</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>58.10704054676016</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>62.95178219239537</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>4.008413759501778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>8.649191968570847</v>
       </c>
       <c r="O15" t="n">
-        <v>372.5519881210194</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>14.88866505892861</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>167.1728247774327</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>62.95178219239537</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>4.008413759501778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>8.649191968570847</v>
       </c>
       <c r="O18" t="n">
-        <v>372.5519881210194</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>14.88866505892861</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>292.5409456991005</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>62.95178219239537</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>4.008413759501778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>327.111960608508</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>108.0867511084406</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9655,13 +9655,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>164.8261203777515</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.10704054676016</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>62.95178219239537</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>4.008413759501778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>402.5115112453002</v>
       </c>
       <c r="N24" t="n">
-        <v>245.9443828387866</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>4.008413759501778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>8.649191968571046</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>372.5519881210194</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.314990659905</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>4.008413759501778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>286.6950215219625</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>379.4895372720301</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>4.008413759501778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>31.06724550781149</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>8.649191968571728</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>4.008413759501778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5692745479061</v>
+        <v>8.649191968570847</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>14.88866505892953</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>55.34240286617283</v>
       </c>
       <c r="R38" t="n">
-        <v>62.95178219239537</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>4.008413759501778</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>108.086751108441</v>
+        <v>139.569274547906</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.10704054676016</v>
+        <v>58.10704054675969</v>
       </c>
       <c r="R41" t="n">
         <v>62.95178219239537</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>31.06724550781166</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11153,10 +11153,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>372.5519881210194</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.10704054676016</v>
+        <v>55.34240286617283</v>
       </c>
       <c r="R44" t="n">
-        <v>62.95178219239537</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>4.008413759501778</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>139.5692745479059</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>139.4527264118994</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>70.12900747954767</v>
+        <v>70.12900747954782</v>
       </c>
       <c r="F28" t="n">
-        <v>69.11609285590974</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>76.23161676731365</v>
       </c>
       <c r="I28" t="n">
-        <v>46.36790555182174</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>51.98055233021444</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>46.18410774682454</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>58.91227843661815</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>90.94186593160643</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>72.31051785119095</v>
       </c>
       <c r="E31" t="n">
-        <v>70.12900747954767</v>
+        <v>70.12900747954777</v>
       </c>
       <c r="F31" t="n">
-        <v>69.11609285590974</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>11.14389306155384</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>46.36790555182174</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>51.98055233021428</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>6.931726106403516</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97928096542067</v>
+        <v>69.64116036323172</v>
       </c>
       <c r="E34" t="n">
-        <v>67.45964999158849</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>66.44673536795057</v>
+        <v>61.93331111947365</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>49.31119484225515</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642835</v>
-      </c>
       <c r="E2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642847</v>
       </c>
       <c r="F2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642841</v>
       </c>
       <c r="G2" t="n">
         <v>821041.7698642843</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642843</v>
+        <v>821041.7698642841</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642843</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="J2" t="n">
-        <v>815173.1630405094</v>
+        <v>815173.1630405096</v>
       </c>
       <c r="K2" t="n">
-        <v>815173.1630405092</v>
+        <v>815173.1630405099</v>
       </c>
       <c r="L2" t="n">
-        <v>816700.5138724856</v>
+        <v>816700.5138724857</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642847</v>
+        <v>821041.7698642842</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.769864285</v>
+        <v>821041.7698642841</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642843</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642841</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3204.941699461775</v>
+        <v>3204.941699461869</v>
       </c>
       <c r="E3" t="n">
-        <v>815518.6598408263</v>
+        <v>815518.6598408262</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>75420.34032351093</v>
+        <v>75420.34032351086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2135.48599036734</v>
+        <v>2135.485990367386</v>
       </c>
       <c r="M3" t="n">
-        <v>216329.070007269</v>
+        <v>216329.0700072692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>61043.96413361719</v>
+        <v>61043.96413361725</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>172576.4870502246</v>
       </c>
       <c r="F4" t="n">
-        <v>172576.4870502246</v>
+        <v>172576.4870502245</v>
       </c>
       <c r="G4" t="n">
         <v>172576.4870502246</v>
@@ -26441,10 +26441,10 @@
         <v>172576.4870502246</v>
       </c>
       <c r="J4" t="n">
-        <v>165666.6074844975</v>
+        <v>165666.6074844973</v>
       </c>
       <c r="K4" t="n">
-        <v>165666.6074844975</v>
+        <v>165666.6074844974</v>
       </c>
       <c r="L4" t="n">
         <v>167464.9576927281</v>
@@ -26456,10 +26456,10 @@
         <v>172576.4870502246</v>
       </c>
       <c r="O4" t="n">
-        <v>172576.4870502246</v>
+        <v>172576.4870502247</v>
       </c>
       <c r="P4" t="n">
-        <v>172576.4870502246</v>
+        <v>172576.4870502247</v>
       </c>
     </row>
     <row r="5">
@@ -26481,22 +26481,22 @@
         <v>75092.71353101882</v>
       </c>
       <c r="F5" t="n">
-        <v>75092.71353101882</v>
+        <v>75092.7135310188</v>
       </c>
       <c r="G5" t="n">
-        <v>75092.71353101882</v>
+        <v>75092.7135310188</v>
       </c>
       <c r="H5" t="n">
-        <v>75092.71353101882</v>
+        <v>75092.7135310188</v>
       </c>
       <c r="I5" t="n">
-        <v>75092.71353101882</v>
+        <v>75092.7135310188</v>
       </c>
       <c r="J5" t="n">
+        <v>76640.78246310823</v>
+      </c>
+      <c r="K5" t="n">
         <v>76640.78246310825</v>
-      </c>
-      <c r="K5" t="n">
-        <v>76640.78246310823</v>
       </c>
       <c r="L5" t="n">
         <v>76237.88541405014</v>
@@ -26505,7 +26505,7 @@
         <v>75092.71353101882</v>
       </c>
       <c r="N5" t="n">
-        <v>75092.71353101882</v>
+        <v>75092.7135310188</v>
       </c>
       <c r="O5" t="n">
         <v>75092.71353101882</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378828.916806298</v>
+        <v>378828.9168062979</v>
       </c>
       <c r="C6" t="n">
-        <v>383957.2161105825</v>
+        <v>383957.2161105828</v>
       </c>
       <c r="D6" t="n">
-        <v>381812.4017028687</v>
+        <v>381812.4017028685</v>
       </c>
       <c r="E6" t="n">
-        <v>-242146.0905577855</v>
+        <v>-242146.0905577849</v>
       </c>
       <c r="F6" t="n">
-        <v>573372.5692830412</v>
+        <v>573372.5692830408</v>
       </c>
       <c r="G6" t="n">
         <v>573372.5692830409</v>
       </c>
       <c r="H6" t="n">
-        <v>573372.5692830409</v>
+        <v>573372.5692830408</v>
       </c>
       <c r="I6" t="n">
-        <v>573372.5692830409</v>
+        <v>573372.5692830411</v>
       </c>
       <c r="J6" t="n">
-        <v>497445.4327693928</v>
+        <v>497298.7175987988</v>
       </c>
       <c r="K6" t="n">
-        <v>572865.7730929035</v>
+        <v>572719.0579223101</v>
       </c>
       <c r="L6" t="n">
-        <v>570862.1847753399</v>
+        <v>570753.6533755452</v>
       </c>
       <c r="M6" t="n">
-        <v>357043.4992757723</v>
+        <v>357043.4992757716</v>
       </c>
       <c r="N6" t="n">
-        <v>573372.5692830416</v>
+        <v>573372.5692830407</v>
       </c>
       <c r="O6" t="n">
-        <v>512328.6051494237</v>
+        <v>512328.6051494236</v>
       </c>
       <c r="P6" t="n">
-        <v>573372.5692830408</v>
+        <v>573372.5692830406</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="F2" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="G2" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="H2" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="I2" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="J2" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="K2" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="L2" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="M2" t="n">
         <v>86.56154405346393</v>
       </c>
       <c r="N2" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="O2" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="P2" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
     </row>
     <row r="3">
@@ -26798,7 +26798,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>898.6698800927303</v>
+        <v>898.6698800927304</v>
       </c>
       <c r="F4" t="n">
         <v>898.6698800927303</v>
@@ -26816,22 +26816,22 @@
         <v>938.3134673161474</v>
       </c>
       <c r="K4" t="n">
-        <v>938.3134673161472</v>
+        <v>938.3134673161477</v>
       </c>
       <c r="L4" t="n">
-        <v>927.9959136366515</v>
+        <v>927.9959136366516</v>
       </c>
       <c r="M4" t="n">
         <v>898.6698800927303</v>
       </c>
       <c r="N4" t="n">
-        <v>898.6698800927304</v>
+        <v>898.6698800927302</v>
       </c>
       <c r="O4" t="n">
-        <v>898.6698800927303</v>
+        <v>898.6698800927302</v>
       </c>
       <c r="P4" t="n">
-        <v>898.6698800927303</v>
+        <v>898.6698800927302</v>
       </c>
     </row>
   </sheetData>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,22 +26931,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.669357487959175</v>
+        <v>2.669357487959232</v>
       </c>
       <c r="M2" t="n">
-        <v>7.587231398483254</v>
+        <v>7.587231398483297</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>76.30495516702149</v>
+        <v>76.30495516702156</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.31755367949578</v>
+        <v>10.31755367949609</v>
       </c>
       <c r="E4" t="n">
-        <v>873.0495888980995</v>
+        <v>873.0495888980994</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.94632473855211</v>
+        <v>54.94632473855214</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>843.7235553541775</v>
+        <v>843.7235553541781</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949578</v>
+        <v>10.31755367949609</v>
       </c>
       <c r="M4" t="n">
-        <v>873.0495888980995</v>
+        <v>873.0495888980994</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>381.2044798147622</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>134.6010260184174</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>354.428363163334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.0545324465364</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27469,19 +27469,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>193.0409253264044</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.5292426668022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>131.9423968196003</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>146.9244349923045</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.1477374121232</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>161.9906538620344</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>275.5618188882664</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>339.3803041055479</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>378.4424180834756</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>203.8732841087864</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>370.9352011409185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>134.7130056875657</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>129.7664748782488</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>74.09389533628003</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>187.4326688177485</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.5292426668022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>6.966754310747802</v>
+        <v>11.51228135765841</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>207.8274428838704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>395.9321281471422</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.4576409082968</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>144.7134224918944</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>183.8629346193314</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>141.626529903997</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>120.8136714519383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28061,22 +28061,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>228.9419322059557</v>
       </c>
       <c r="W10" t="n">
-        <v>263.9566458523602</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="C11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="D11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="E11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="F11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="G11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="H11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="I11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="T11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="U11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="V11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="W11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="X11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="Y11" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="C13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="D13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="E13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="F13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="G13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="H13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="I13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="J13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="K13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="L13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="M13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="N13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="O13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="P13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="R13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="S13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="T13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="U13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="V13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="W13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="X13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346395</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="C14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="D14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="E14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="F14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="G14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="H14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="I14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="T14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="U14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="V14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="W14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="X14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Y14" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="C16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="D16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="E16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="F16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="G16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="H16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="I16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="J16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="K16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="L16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="M16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="N16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="O16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="P16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="R16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="S16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="T16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="U16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="V16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="W16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="X16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="C17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="D17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="E17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="F17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="G17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="H17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="I17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="T17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="U17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="V17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="W17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="X17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346535</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="C19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="D19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="E19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="F19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="G19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="H19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="I19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="J19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="K19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="L19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="M19" t="n">
-        <v>86.56154405346408</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="N19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="O19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="P19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="R19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="S19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="T19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="U19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="V19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="W19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="X19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Y19" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="C20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="D20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="E20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="F20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="G20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="H20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="I20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="T20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="U20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="V20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="W20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="X20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="C22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="D22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="E22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="F22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="G22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="H22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="I22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="J22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="K22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="L22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="M22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="N22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346535</v>
       </c>
       <c r="O22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="P22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="R22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="S22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="T22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="U22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="V22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="W22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="X22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="C23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="D23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="E23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="F23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="G23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="H23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346501</v>
       </c>
       <c r="I23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="T23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="U23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="V23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="W23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="X23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="C25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="D25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="E25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="F25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="G25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="H25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="I25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="J25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="K25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="L25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346533</v>
       </c>
       <c r="M25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="N25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="O25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="P25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="R25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="S25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="T25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="U25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="V25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="W25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="X25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346389</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="C26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="D26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="E26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="F26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="G26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="H26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="I26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="T26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="U26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="V26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="W26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="X26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="Y26" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="C28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="D28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="E28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="F28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="G28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="H28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="I28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="J28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="K28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="L28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="M28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="N28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="O28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="P28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="R28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="S28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="T28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="U28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="V28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="W28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="X28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.3049551670215</v>
+        <v>76.30495516702135</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="C29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="D29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="E29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="F29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="G29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="H29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="I29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="T29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="U29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="V29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="W29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="X29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="Y29" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="C31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="D31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="E31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="F31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="G31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="H31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="I31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="J31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="K31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="L31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="M31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="N31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="O31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="P31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="R31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="S31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="T31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="U31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="V31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="W31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="X31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.3049551670215</v>
+        <v>76.3049551670214</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="C32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="D32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="E32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="F32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="G32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="H32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="I32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="T32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="U32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="V32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="W32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="X32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="C34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="D34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="E34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="F34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="G34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="H34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="I34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="J34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="K34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="L34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="M34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="N34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="O34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="P34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="R34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="S34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="T34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="U34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="V34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="W34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="X34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.97431265498068</v>
+        <v>78.97431265498064</v>
       </c>
     </row>
     <row r="35">
@@ -30176,7 +30176,7 @@
         <v>86.56154405346393</v>
       </c>
       <c r="M37" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346408</v>
       </c>
       <c r="N37" t="n">
         <v>86.56154405346393</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="C38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="D38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="E38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="F38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="G38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="H38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="I38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="T38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="U38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="V38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="W38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="X38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="Y38" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="C40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="D40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="E40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="F40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="G40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="H40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="I40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="J40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="K40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="L40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="M40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="N40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="O40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="P40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="R40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="S40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="T40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="U40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="V40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="W40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="X40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
       <c r="Y40" t="n">
-        <v>86.56154405346395</v>
+        <v>86.5615440534639</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="C41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="D41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="E41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="F41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="G41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="H41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="I41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="T41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="U41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="V41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="W41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="X41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="Y41" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="C43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="D43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="E43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="F43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="G43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="H43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="I43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="J43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="K43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="L43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="M43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="N43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="O43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="P43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="R43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="S43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="T43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="U43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="V43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="W43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="X43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="C44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="D44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="E44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="F44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="G44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="H44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="I44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="T44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="U44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="V44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="W44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="X44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="Y44" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="C46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="D46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="E46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="F46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="G46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="H46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="I46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="J46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="K46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="L46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="M46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="N46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="O46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="P46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="R46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="S46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="T46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="U46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="V46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="W46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="X46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.56154405346393</v>
+        <v>86.56154405346406</v>
       </c>
     </row>
   </sheetData>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M4" t="n">
         <v>15.30273751513505</v>
@@ -34871,7 +34871,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
         <v>15.30273751513505</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M6" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P6" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="Q6" t="n">
         <v>15.30273751513505</v>
@@ -35102,13 +35102,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>194.2807739840997</v>
       </c>
       <c r="K11" t="n">
-        <v>413.1409668419822</v>
+        <v>258.9330167288379</v>
       </c>
       <c r="L11" t="n">
         <v>565.3425760758321</v>
       </c>
       <c r="M11" t="n">
-        <v>488.8542462997031</v>
+        <v>645.8268340934352</v>
       </c>
       <c r="N11" t="n">
         <v>641.4971919594132</v>
@@ -35433,7 +35433,7 @@
         <v>252.4052330067645</v>
       </c>
       <c r="R11" t="n">
-        <v>2.764637680587072</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>122.0826215809071</v>
       </c>
       <c r="K12" t="n">
-        <v>72.09324983317504</v>
+        <v>336.5584868457536</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7959623794021</v>
+        <v>514.5690621750496</v>
       </c>
       <c r="M12" t="n">
-        <v>652.9820891867354</v>
+        <v>589.7885366820357</v>
       </c>
       <c r="N12" t="n">
-        <v>686.1302521670013</v>
+        <v>206.7878778234478</v>
       </c>
       <c r="O12" t="n">
-        <v>560.5885906196197</v>
+        <v>166.7262713428901</v>
       </c>
       <c r="P12" t="n">
         <v>432.7469504996492</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.97251830755945</v>
+        <v>236.0498060434086</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>70.26146481310423</v>
+        <v>70.26146481310424</v>
       </c>
       <c r="K13" t="n">
         <v>190.9238265877818</v>
@@ -35588,7 +35588,7 @@
         <v>215.6639785991172</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.66751908281877</v>
+        <v>91.66751908281879</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>565.3425760758321</v>
       </c>
       <c r="M14" t="n">
-        <v>488.8542462997031</v>
+        <v>645.8268340934352</v>
       </c>
       <c r="N14" t="n">
         <v>641.4971919594132</v>
@@ -35667,10 +35667,10 @@
         <v>439.9804713456345</v>
       </c>
       <c r="Q14" t="n">
-        <v>252.4052330067645</v>
+        <v>98.19728289361997</v>
       </c>
       <c r="R14" t="n">
-        <v>2.764637680587072</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>122.0826215809071</v>
       </c>
       <c r="K15" t="n">
-        <v>72.09324983317504</v>
+        <v>336.5584868457536</v>
       </c>
       <c r="L15" t="n">
         <v>514.5690621750496</v>
       </c>
       <c r="M15" t="n">
-        <v>652.9820891867354</v>
+        <v>187.2770254367355</v>
       </c>
       <c r="N15" t="n">
-        <v>686.1302521670013</v>
+        <v>215.4370697920187</v>
       </c>
       <c r="O15" t="n">
-        <v>539.2782594639095</v>
+        <v>560.5885906196197</v>
       </c>
       <c r="P15" t="n">
-        <v>114.2841818597121</v>
+        <v>432.7469504996492</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.97251830755945</v>
+        <v>236.0498060434086</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>70.26146481310423</v>
+        <v>70.26146481310418</v>
       </c>
       <c r="K16" t="n">
-        <v>190.9238265877818</v>
+        <v>190.9238265877817</v>
       </c>
       <c r="L16" t="n">
         <v>276.1966427008476</v>
@@ -35825,7 +35825,7 @@
         <v>215.6639785991172</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.66751908281877</v>
+        <v>91.66751908281873</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>40.07282387095449</v>
+        <v>194.2807739840997</v>
       </c>
       <c r="K17" t="n">
-        <v>413.1409668419822</v>
+        <v>256.1683790482501</v>
       </c>
       <c r="L17" t="n">
         <v>565.3425760758321</v>
@@ -35907,7 +35907,7 @@
         <v>252.4052330067645</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2.764637680587072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>122.0826215809071</v>
       </c>
       <c r="K18" t="n">
-        <v>72.09324983317504</v>
+        <v>336.5584868457536</v>
       </c>
       <c r="L18" t="n">
         <v>514.5690621750496</v>
       </c>
       <c r="M18" t="n">
-        <v>652.9820891867354</v>
+        <v>187.2770254367355</v>
       </c>
       <c r="N18" t="n">
-        <v>686.1302521670013</v>
+        <v>215.4370697920187</v>
       </c>
       <c r="O18" t="n">
-        <v>539.2782594639095</v>
+        <v>560.5885906196197</v>
       </c>
       <c r="P18" t="n">
-        <v>114.2841818597121</v>
+        <v>432.7469504996492</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.97251830755945</v>
+        <v>236.0498060434086</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.26146481310423</v>
+        <v>70.26146481310418</v>
       </c>
       <c r="K19" t="n">
-        <v>190.9238265877818</v>
+        <v>190.9238265877817</v>
       </c>
       <c r="L19" t="n">
         <v>276.1966427008476</v>
       </c>
       <c r="M19" t="n">
-        <v>296.9992305061451</v>
+        <v>296.999230506145</v>
       </c>
       <c r="N19" t="n">
         <v>297.4850042108819</v>
@@ -36062,7 +36062,7 @@
         <v>215.6639785991172</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.66751908281877</v>
+        <v>91.66751908281873</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>40.07282387095449</v>
+        <v>194.2807739840997</v>
       </c>
       <c r="K20" t="n">
         <v>413.1409668419822</v>
@@ -36129,7 +36129,7 @@
         <v>565.3425760758321</v>
       </c>
       <c r="M20" t="n">
-        <v>645.8268340934352</v>
+        <v>488.8542462997031</v>
       </c>
       <c r="N20" t="n">
         <v>641.4971919594132</v>
@@ -36144,7 +36144,7 @@
         <v>252.4052330067645</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>2.764637680587072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.0826215809071</v>
       </c>
       <c r="K21" t="n">
         <v>336.5584868457536</v>
@@ -36208,19 +36208,19 @@
         <v>514.5690621750496</v>
       </c>
       <c r="M21" t="n">
-        <v>652.9820891867354</v>
+        <v>514.3889860452434</v>
       </c>
       <c r="N21" t="n">
-        <v>686.1302521670013</v>
+        <v>206.7878778234478</v>
       </c>
       <c r="O21" t="n">
-        <v>274.8130224513307</v>
+        <v>560.5885906196197</v>
       </c>
       <c r="P21" t="n">
         <v>114.2841818597121</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.97251830755945</v>
+        <v>236.0498060434086</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.26146481310423</v>
+        <v>70.26146481310418</v>
       </c>
       <c r="K22" t="n">
-        <v>190.9238265877818</v>
+        <v>190.9238265877817</v>
       </c>
       <c r="L22" t="n">
         <v>276.1966427008476</v>
@@ -36290,7 +36290,7 @@
         <v>296.999230506145</v>
       </c>
       <c r="N22" t="n">
-        <v>297.4850042108819</v>
+        <v>297.4850042108833</v>
       </c>
       <c r="O22" t="n">
         <v>265.2054221828715</v>
@@ -36299,7 +36299,7 @@
         <v>215.6639785991172</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.66751908281877</v>
+        <v>91.66751908281873</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,13 +36375,13 @@
         <v>560.1035290317441</v>
       </c>
       <c r="P23" t="n">
-        <v>439.9804713456345</v>
+        <v>283.0078835519034</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.19728289361997</v>
+        <v>252.4052330067645</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.764637680587072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.0826215809071</v>
       </c>
       <c r="K24" t="n">
         <v>336.5584868457536</v>
       </c>
       <c r="L24" t="n">
-        <v>143.7287168715904</v>
+        <v>514.5690621750496</v>
       </c>
       <c r="M24" t="n">
-        <v>652.9820891867354</v>
+        <v>589.7885366820357</v>
       </c>
       <c r="N24" t="n">
-        <v>452.7322606622344</v>
+        <v>206.7878778234478</v>
       </c>
       <c r="O24" t="n">
-        <v>560.5885906196197</v>
+        <v>166.7262713428901</v>
       </c>
       <c r="P24" t="n">
         <v>432.7469504996492</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.97251830755945</v>
+        <v>236.0498060434086</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.26146481310423</v>
+        <v>70.26146481310418</v>
       </c>
       <c r="K25" t="n">
-        <v>190.9238265877818</v>
+        <v>190.9238265877817</v>
       </c>
       <c r="L25" t="n">
-        <v>276.1966427008476</v>
+        <v>276.196642700849</v>
       </c>
       <c r="M25" t="n">
         <v>296.999230506145</v>
@@ -36536,7 +36536,7 @@
         <v>215.6639785991172</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.66751908281877</v>
+        <v>91.66751908281873</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>122.0826215809071</v>
       </c>
       <c r="K27" t="n">
-        <v>72.09324983317504</v>
+        <v>336.5584868457536</v>
       </c>
       <c r="L27" t="n">
         <v>514.5690621750496</v>
       </c>
       <c r="M27" t="n">
-        <v>652.9820891867354</v>
+        <v>195.9262174053065</v>
       </c>
       <c r="N27" t="n">
-        <v>686.1302521670013</v>
+        <v>206.7878778234478</v>
       </c>
       <c r="O27" t="n">
-        <v>539.2782594639095</v>
+        <v>560.5885906196197</v>
       </c>
       <c r="P27" t="n">
-        <v>114.2841818597121</v>
+        <v>432.7469504996492</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.97251830755945</v>
+        <v>236.0498060434086</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.0048759266618</v>
+        <v>60.00487592666164</v>
       </c>
       <c r="K28" t="n">
-        <v>180.6672377013394</v>
+        <v>180.6672377013392</v>
       </c>
       <c r="L28" t="n">
-        <v>265.9400538144052</v>
+        <v>265.940053814405</v>
       </c>
       <c r="M28" t="n">
-        <v>286.7426416197026</v>
+        <v>286.7426416197024</v>
       </c>
       <c r="N28" t="n">
-        <v>287.2284153244395</v>
+        <v>287.2284153244393</v>
       </c>
       <c r="O28" t="n">
-        <v>254.9488332964291</v>
+        <v>254.9488332964289</v>
       </c>
       <c r="P28" t="n">
-        <v>205.4073897126748</v>
+        <v>205.4073897126746</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.41093019637634</v>
+        <v>81.41093019637619</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>439.9804713456345</v>
       </c>
       <c r="Q29" t="n">
-        <v>252.4052330067648</v>
+        <v>252.4052330067645</v>
       </c>
       <c r="R29" t="n">
         <v>2.764637680587072</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.0826215809071</v>
       </c>
       <c r="K30" t="n">
-        <v>72.09324983317504</v>
+        <v>336.5584868457536</v>
       </c>
       <c r="L30" t="n">
         <v>143.7287168715904</v>
       </c>
       <c r="M30" t="n">
-        <v>473.9720469586979</v>
+        <v>187.2770254367355</v>
       </c>
       <c r="N30" t="n">
-        <v>686.1302521670013</v>
+        <v>586.277415095478</v>
       </c>
       <c r="O30" t="n">
         <v>560.5885906196197</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.0048759266618</v>
+        <v>60.0048759266617</v>
       </c>
       <c r="K31" t="n">
-        <v>180.6672377013394</v>
+        <v>180.6672377013393</v>
       </c>
       <c r="L31" t="n">
-        <v>265.9400538144052</v>
+        <v>265.9400538144051</v>
       </c>
       <c r="M31" t="n">
-        <v>286.7426416197026</v>
+        <v>286.7426416197025</v>
       </c>
       <c r="N31" t="n">
-        <v>287.2284153244395</v>
+        <v>287.2284153244394</v>
       </c>
       <c r="O31" t="n">
-        <v>254.9488332964291</v>
+        <v>254.948833296429</v>
       </c>
       <c r="P31" t="n">
-        <v>205.4073897126748</v>
+        <v>205.4073897126747</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.41093019637634</v>
+        <v>81.41093019637624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>122.0826215809071</v>
       </c>
       <c r="K33" t="n">
-        <v>72.09324983317504</v>
+        <v>336.5584868457536</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7959623794019</v>
+        <v>514.5690621750496</v>
       </c>
       <c r="M33" t="n">
-        <v>652.9820891867354</v>
+        <v>195.9262174053072</v>
       </c>
       <c r="N33" t="n">
-        <v>686.1302521670013</v>
+        <v>206.7878778234478</v>
       </c>
       <c r="O33" t="n">
         <v>560.5885906196197</v>
@@ -37168,7 +37168,7 @@
         <v>432.7469504996492</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.97251830755945</v>
+        <v>236.0498060434086</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.67423341462097</v>
+        <v>62.67423341462093</v>
       </c>
       <c r="K34" t="n">
         <v>183.3365951892985</v>
       </c>
       <c r="L34" t="n">
-        <v>268.6094113023644</v>
+        <v>268.6094113023643</v>
       </c>
       <c r="M34" t="n">
         <v>289.4119991076617</v>
       </c>
       <c r="N34" t="n">
-        <v>289.8977728123987</v>
+        <v>289.8977728123986</v>
       </c>
       <c r="O34" t="n">
-        <v>257.6181907843883</v>
+        <v>257.6181907843882</v>
       </c>
       <c r="P34" t="n">
         <v>208.0767472006339</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.08028768433552</v>
+        <v>84.08028768433547</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>122.0826215809071</v>
       </c>
       <c r="K36" t="n">
-        <v>72.09324983317504</v>
+        <v>336.5584868457536</v>
       </c>
       <c r="L36" t="n">
         <v>514.5690621750496</v>
       </c>
       <c r="M36" t="n">
-        <v>652.9820891867354</v>
+        <v>187.2770254367355</v>
       </c>
       <c r="N36" t="n">
-        <v>346.3571523713539</v>
+        <v>215.4370697920187</v>
       </c>
       <c r="O36" t="n">
         <v>560.5885906196197</v>
@@ -37405,7 +37405,7 @@
         <v>432.7469504996492</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.97251830755945</v>
+        <v>236.0498060434086</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>276.1966427008476</v>
       </c>
       <c r="M37" t="n">
-        <v>296.999230506145</v>
+        <v>296.9992305061451</v>
       </c>
       <c r="N37" t="n">
         <v>297.4850042108819</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>40.07282387095541</v>
+        <v>194.2807739840997</v>
       </c>
       <c r="K38" t="n">
         <v>413.1409668419822</v>
@@ -37563,10 +37563,10 @@
         <v>439.9804713456345</v>
       </c>
       <c r="Q38" t="n">
-        <v>252.4052330067645</v>
+        <v>95.43264521303264</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2.764637680587072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>336.5584868457536</v>
+        <v>72.09324983317504</v>
       </c>
       <c r="L39" t="n">
         <v>514.5690621750496</v>
@@ -37633,16 +37633,16 @@
         <v>652.9820891867354</v>
       </c>
       <c r="N39" t="n">
-        <v>686.1302521670013</v>
+        <v>206.7878778234478</v>
       </c>
       <c r="O39" t="n">
-        <v>166.7262713428901</v>
+        <v>560.5885906196197</v>
       </c>
       <c r="P39" t="n">
-        <v>114.2841818597121</v>
+        <v>432.7469504996492</v>
       </c>
       <c r="Q39" t="n">
-        <v>134.0592694160004</v>
+        <v>165.5417928554654</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.26146481310424</v>
+        <v>70.2614648131042</v>
       </c>
       <c r="K40" t="n">
         <v>190.9238265877818</v>
@@ -37721,7 +37721,7 @@
         <v>215.6639785991172</v>
       </c>
       <c r="Q40" t="n">
-        <v>91.66751908281879</v>
+        <v>91.66751908281874</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>439.9804713456345</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.19728289361997</v>
+        <v>98.1972828936195</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>72.09324983317504</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7959623794021</v>
+        <v>514.5690621750496</v>
       </c>
       <c r="M42" t="n">
         <v>652.9820891867354</v>
@@ -37873,10 +37873,10 @@
         <v>686.1302521670013</v>
       </c>
       <c r="O42" t="n">
-        <v>560.5885906196197</v>
+        <v>539.2782594639095</v>
       </c>
       <c r="P42" t="n">
-        <v>432.7469504996492</v>
+        <v>114.2841818597121</v>
       </c>
       <c r="Q42" t="n">
         <v>25.97251830755945</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.26146481310423</v>
+        <v>70.26146481310435</v>
       </c>
       <c r="K43" t="n">
-        <v>190.9238265877818</v>
+        <v>190.9238265877819</v>
       </c>
       <c r="L43" t="n">
-        <v>276.1966427008476</v>
+        <v>276.1966427008477</v>
       </c>
       <c r="M43" t="n">
-        <v>296.999230506145</v>
+        <v>296.9992305061451</v>
       </c>
       <c r="N43" t="n">
-        <v>297.4850042108819</v>
+        <v>297.485004210882</v>
       </c>
       <c r="O43" t="n">
-        <v>265.2054221828715</v>
+        <v>265.2054221828716</v>
       </c>
       <c r="P43" t="n">
-        <v>215.6639785991172</v>
+        <v>215.6639785991173</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.66751908281877</v>
+        <v>91.6675190828189</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>439.9804713456345</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.19728289361997</v>
+        <v>95.43264521303264</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2.764637680587072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>72.09324983317504</v>
+        <v>211.662524381081</v>
       </c>
       <c r="L45" t="n">
-        <v>143.7287168715904</v>
+        <v>514.5690621750496</v>
       </c>
       <c r="M45" t="n">
         <v>652.9820891867354</v>
       </c>
       <c r="N45" t="n">
-        <v>686.1302521670013</v>
+        <v>206.7878778234478</v>
       </c>
       <c r="O45" t="n">
         <v>560.5885906196197</v>
       </c>
       <c r="P45" t="n">
-        <v>253.7369082716115</v>
+        <v>432.7469504996492</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.0498060434086</v>
+        <v>25.97251830755945</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>70.26146481310423</v>
+        <v>70.26146481310435</v>
       </c>
       <c r="K46" t="n">
-        <v>190.9238265877818</v>
+        <v>190.9238265877819</v>
       </c>
       <c r="L46" t="n">
-        <v>276.1966427008476</v>
+        <v>276.1966427008477</v>
       </c>
       <c r="M46" t="n">
-        <v>296.999230506145</v>
+        <v>296.9992305061451</v>
       </c>
       <c r="N46" t="n">
-        <v>297.4850042108819</v>
+        <v>297.485004210882</v>
       </c>
       <c r="O46" t="n">
-        <v>265.2054221828715</v>
+        <v>265.2054221828716</v>
       </c>
       <c r="P46" t="n">
-        <v>215.6639785991172</v>
+        <v>215.6639785991173</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.66751908281877</v>
+        <v>91.6675190828189</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
